--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U265"/>
+  <dimension ref="A1:U267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17165,6 +17165,144 @@
         </is>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>379.6476923076923</v>
+      </c>
+      <c r="C266" t="n">
+        <v>389.8076923076923</v>
+      </c>
+      <c r="D266" t="n">
+        <v>387.88</v>
+      </c>
+      <c r="E266" t="n">
+        <v>386.97</v>
+      </c>
+      <c r="F266" t="n">
+        <v>383.11</v>
+      </c>
+      <c r="G266" t="n">
+        <v>379.11</v>
+      </c>
+      <c r="H266" t="n">
+        <v>383.1014285714285</v>
+      </c>
+      <c r="I266" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="J266" t="n">
+        <v>386.25</v>
+      </c>
+      <c r="K266" t="n">
+        <v>405.85</v>
+      </c>
+      <c r="L266" t="n">
+        <v>400.36</v>
+      </c>
+      <c r="M266" t="n">
+        <v>360.8364705882353</v>
+      </c>
+      <c r="N266" t="n">
+        <v>367.1164705882353</v>
+      </c>
+      <c r="O266" t="n">
+        <v>357.8376923076923</v>
+      </c>
+      <c r="P266" t="n">
+        <v>365.13</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>363.7000000000001</v>
+      </c>
+      <c r="R266" t="n">
+        <v>377.1436842105263</v>
+      </c>
+      <c r="S266" t="n">
+        <v>380.71</v>
+      </c>
+      <c r="T266" t="n">
+        <v>378.6264705882353</v>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>386.8869230769231</v>
+      </c>
+      <c r="C267" t="n">
+        <v>391.7569230769231</v>
+      </c>
+      <c r="D267" t="n">
+        <v>391.6266666666667</v>
+      </c>
+      <c r="E267" t="n">
+        <v>389.8733333333333</v>
+      </c>
+      <c r="F267" t="n">
+        <v>384.77</v>
+      </c>
+      <c r="G267" t="n">
+        <v>379.0366666666667</v>
+      </c>
+      <c r="H267" t="n">
+        <v>383.0185714285714</v>
+      </c>
+      <c r="I267" t="n">
+        <v>385.37</v>
+      </c>
+      <c r="J267" t="n">
+        <v>385.9233333333333</v>
+      </c>
+      <c r="K267" t="n">
+        <v>422.4733333333333</v>
+      </c>
+      <c r="L267" t="n">
+        <v>404.94</v>
+      </c>
+      <c r="M267" t="n">
+        <v>362.7152941176471</v>
+      </c>
+      <c r="N267" t="n">
+        <v>373.8452941176471</v>
+      </c>
+      <c r="O267" t="n">
+        <v>360.8269230769231</v>
+      </c>
+      <c r="P267" t="n">
+        <v>364.6666666666667</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>364.28</v>
+      </c>
+      <c r="R267" t="n">
+        <v>372.9315789473685</v>
+      </c>
+      <c r="S267" t="n">
+        <v>374.67</v>
+      </c>
+      <c r="T267" t="n">
+        <v>390.8852941176471</v>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17176,7 +17314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19914,6 +20052,26 @@
       </c>
       <c r="B273" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -20082,28 +20240,28 @@
         <v>0.0751</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1478252273608172</v>
+        <v>0.1472049046021205</v>
       </c>
       <c r="J2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K2" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009201423974901757</v>
+        <v>0.009294081170880486</v>
       </c>
       <c r="M2" t="n">
-        <v>8.270752982300355</v>
+        <v>8.229522527407005</v>
       </c>
       <c r="N2" t="n">
-        <v>108.3247164142101</v>
+        <v>107.4862499522454</v>
       </c>
       <c r="O2" t="n">
-        <v>10.40791604569378</v>
+        <v>10.36755756927568</v>
       </c>
       <c r="P2" t="n">
-        <v>379.8577212578149</v>
+        <v>379.8641855691841</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -20159,28 +20317,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1112269119893985</v>
+        <v>0.1209121306989092</v>
       </c>
       <c r="J3" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K3" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005995579715314281</v>
+        <v>0.007189678684788037</v>
       </c>
       <c r="M3" t="n">
-        <v>7.677012598300791</v>
+        <v>7.659212965008837</v>
       </c>
       <c r="N3" t="n">
-        <v>94.47556532560718</v>
+        <v>93.88914911926599</v>
       </c>
       <c r="O3" t="n">
-        <v>9.719854182322242</v>
+        <v>9.689641330785468</v>
       </c>
       <c r="P3" t="n">
-        <v>382.7207655704455</v>
+        <v>382.6156035128661</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -20236,28 +20394,28 @@
         <v>0.0699</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1328337682351184</v>
+        <v>0.1382511455354142</v>
       </c>
       <c r="J4" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K4" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01062527307384009</v>
+        <v>0.0117031127265762</v>
       </c>
       <c r="M4" t="n">
-        <v>6.986418609245751</v>
+        <v>6.953075967371662</v>
       </c>
       <c r="N4" t="n">
-        <v>77.10246129678612</v>
+        <v>76.51079934916028</v>
       </c>
       <c r="O4" t="n">
-        <v>8.780800720707999</v>
+        <v>8.747045178182189</v>
       </c>
       <c r="P4" t="n">
-        <v>383.520849666852</v>
+        <v>383.4628429749213</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -20313,28 +20471,28 @@
         <v>0.0881</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08445319197231259</v>
+        <v>0.09521553048347173</v>
       </c>
       <c r="J5" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K5" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003202543272925351</v>
+        <v>0.004133045754396769</v>
       </c>
       <c r="M5" t="n">
-        <v>7.998546277394805</v>
+        <v>7.987047843003386</v>
       </c>
       <c r="N5" t="n">
-        <v>102.4025743813948</v>
+        <v>101.7908013321838</v>
       </c>
       <c r="O5" t="n">
-        <v>10.11941571343893</v>
+        <v>10.08914274515847</v>
       </c>
       <c r="P5" t="n">
-        <v>380.586596718593</v>
+        <v>380.4704108647478</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -20390,28 +20548,28 @@
         <v>0.0922</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03190954032552188</v>
+        <v>0.04254324258638638</v>
       </c>
       <c r="J6" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K6" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004522295204212323</v>
+        <v>0.0008166669395689441</v>
       </c>
       <c r="M6" t="n">
-        <v>8.137476030550941</v>
+        <v>8.11647337941373</v>
       </c>
       <c r="N6" t="n">
-        <v>106.99397773342</v>
+        <v>106.3158804745703</v>
       </c>
       <c r="O6" t="n">
-        <v>10.34378933145005</v>
+        <v>10.3109592412428</v>
       </c>
       <c r="P6" t="n">
-        <v>377.4489333824333</v>
+        <v>377.3358015198826</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -20467,28 +20625,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02478009209824238</v>
+        <v>0.03350274650379508</v>
       </c>
       <c r="J7" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K7" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002762918349182852</v>
+        <v>0.000513689563172548</v>
       </c>
       <c r="M7" t="n">
-        <v>7.826854869883422</v>
+        <v>7.798673020536812</v>
       </c>
       <c r="N7" t="n">
-        <v>104.492854735125</v>
+        <v>103.7266151684906</v>
       </c>
       <c r="O7" t="n">
-        <v>10.22217465782722</v>
+        <v>10.18462641280919</v>
       </c>
       <c r="P7" t="n">
-        <v>373.8421332533586</v>
+        <v>373.7486266792573</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -20544,28 +20702,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01402099637913321</v>
+        <v>0.005059948390875652</v>
       </c>
       <c r="J8" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K8" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L8" t="n">
-        <v>7.323698489469788e-05</v>
+        <v>9.667994423590009e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>8.806911954217984</v>
+        <v>8.806889494551456</v>
       </c>
       <c r="N8" t="n">
-        <v>121.8992893046818</v>
+        <v>121.60493065307</v>
       </c>
       <c r="O8" t="n">
-        <v>11.04080111697887</v>
+        <v>11.02746256638715</v>
       </c>
       <c r="P8" t="n">
-        <v>373.8067459437462</v>
+        <v>373.6004324048277</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -20621,28 +20779,28 @@
         <v>0.0905</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1463076672912085</v>
+        <v>-0.1235323675302577</v>
       </c>
       <c r="J9" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K9" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009162131061637435</v>
+        <v>0.006596832970009125</v>
       </c>
       <c r="M9" t="n">
-        <v>7.689072554137804</v>
+        <v>7.724843709955027</v>
       </c>
       <c r="N9" t="n">
-        <v>103.0262756170519</v>
+        <v>103.3605802622336</v>
       </c>
       <c r="O9" t="n">
-        <v>10.15018598928374</v>
+        <v>10.1666405593113</v>
       </c>
       <c r="P9" t="n">
-        <v>375.3188413226148</v>
+        <v>375.0694906905487</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -20698,28 +20856,28 @@
         <v>0.0843</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06796114994877814</v>
+        <v>-0.05590536259378164</v>
       </c>
       <c r="J10" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K10" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002022063005616692</v>
+        <v>0.001390469871446309</v>
       </c>
       <c r="M10" t="n">
-        <v>7.723499899859833</v>
+        <v>7.716675618080548</v>
       </c>
       <c r="N10" t="n">
-        <v>102.1769341850752</v>
+        <v>101.6535063413776</v>
       </c>
       <c r="O10" t="n">
-        <v>10.10826069039947</v>
+        <v>10.08233635331502</v>
       </c>
       <c r="P10" t="n">
-        <v>381.3490652692011</v>
+        <v>381.2175752377041</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -20775,28 +20933,28 @@
         <v>0.0314</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08625829538964083</v>
+        <v>-0.03112783595967226</v>
       </c>
       <c r="J11" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K11" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001088358575597748</v>
+        <v>0.0001406375871468857</v>
       </c>
       <c r="M11" t="n">
-        <v>14.33794506903677</v>
+        <v>14.45894085119625</v>
       </c>
       <c r="N11" t="n">
-        <v>314.7325899969948</v>
+        <v>320.4688226761854</v>
       </c>
       <c r="O11" t="n">
-        <v>17.74070432640697</v>
+        <v>17.90164301610848</v>
       </c>
       <c r="P11" t="n">
-        <v>385.5763917683651</v>
+        <v>384.9784104806848</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -20852,28 +21010,28 @@
         <v>0.0527</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01742231303046859</v>
+        <v>0.0886807957129476</v>
       </c>
       <c r="J12" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K12" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001118745550633404</v>
+        <v>0.0027548714989728</v>
       </c>
       <c r="M12" t="n">
-        <v>8.969660239101545</v>
+        <v>9.218273477012685</v>
       </c>
       <c r="N12" t="n">
-        <v>126.8218152159187</v>
+        <v>134.8181896923085</v>
       </c>
       <c r="O12" t="n">
-        <v>11.26151922326285</v>
+        <v>11.61112353272966</v>
       </c>
       <c r="P12" t="n">
-        <v>373.6582780510944</v>
+        <v>372.8913394922748</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -20929,28 +21087,28 @@
         <v>0.1031</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02936721187391814</v>
+        <v>-0.02522543483365751</v>
       </c>
       <c r="J13" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K13" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003616843723570629</v>
+        <v>0.0002718830159212926</v>
       </c>
       <c r="M13" t="n">
-        <v>7.898902329521365</v>
+        <v>7.848681030437401</v>
       </c>
       <c r="N13" t="n">
-        <v>107.9051053960441</v>
+        <v>107.0070073873791</v>
       </c>
       <c r="O13" t="n">
-        <v>10.38773822331137</v>
+        <v>10.34441914209682</v>
       </c>
       <c r="P13" t="n">
-        <v>360.3382010515869</v>
+        <v>360.2930310122143</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -21006,28 +21164,28 @@
         <v>0.1014</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1192903754178047</v>
+        <v>-0.1004698633628982</v>
       </c>
       <c r="J14" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K14" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005108247223761575</v>
+        <v>0.003672380357343186</v>
       </c>
       <c r="M14" t="n">
-        <v>9.14682124809335</v>
+        <v>9.158696523714585</v>
       </c>
       <c r="N14" t="n">
-        <v>126.4247308072026</v>
+        <v>126.2612805944267</v>
       </c>
       <c r="O14" t="n">
-        <v>11.24387525754366</v>
+        <v>11.23660449577303</v>
       </c>
       <c r="P14" t="n">
-        <v>363.5642783380455</v>
+        <v>363.3617133172329</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -21083,28 +21241,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07912618214665486</v>
+        <v>-0.07944389035007883</v>
       </c>
       <c r="J15" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K15" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002932856588390487</v>
+        <v>0.003015304237610761</v>
       </c>
       <c r="M15" t="n">
-        <v>7.765162683316849</v>
+        <v>7.710328073281554</v>
       </c>
       <c r="N15" t="n">
-        <v>97.17570845342512</v>
+        <v>96.34688969893143</v>
       </c>
       <c r="O15" t="n">
-        <v>9.857774011074971</v>
+        <v>9.815645149399577</v>
       </c>
       <c r="P15" t="n">
-        <v>361.5147667755126</v>
+        <v>361.5180887713664</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -21160,28 +21318,28 @@
         <v>0.068</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04378828062109375</v>
+        <v>-0.03313370767529479</v>
       </c>
       <c r="J16" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K16" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0008463955765273257</v>
+        <v>0.0004927356586965637</v>
       </c>
       <c r="M16" t="n">
-        <v>7.926719236016861</v>
+        <v>7.904242891525439</v>
       </c>
       <c r="N16" t="n">
-        <v>103.1693692202573</v>
+        <v>102.5540028907834</v>
       </c>
       <c r="O16" t="n">
-        <v>10.15723236025726</v>
+        <v>10.12689502714348</v>
       </c>
       <c r="P16" t="n">
-        <v>360.2988309399223</v>
+        <v>360.1836785919515</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -21237,28 +21395,28 @@
         <v>0.1165</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02907351047628719</v>
+        <v>-0.02641208313066113</v>
       </c>
       <c r="J17" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K17" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006015454857359881</v>
+        <v>0.0005055353868049783</v>
       </c>
       <c r="M17" t="n">
-        <v>6.096812645765902</v>
+        <v>6.057886365407633</v>
       </c>
       <c r="N17" t="n">
-        <v>65.66010931895316</v>
+        <v>65.10544505246902</v>
       </c>
       <c r="O17" t="n">
-        <v>8.103092577464061</v>
+        <v>8.068794522880665</v>
       </c>
       <c r="P17" t="n">
-        <v>363.2713596586046</v>
+        <v>363.2427409100812</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -21314,28 +21472,28 @@
         <v>0.1108</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02319803937323615</v>
+        <v>0.03726415622533924</v>
       </c>
       <c r="J18" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K18" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002298700662645148</v>
+        <v>0.0006010139629261113</v>
       </c>
       <c r="M18" t="n">
-        <v>7.83592518772311</v>
+        <v>7.833067319529869</v>
       </c>
       <c r="N18" t="n">
-        <v>109.0542049829668</v>
+        <v>108.6442535639935</v>
       </c>
       <c r="O18" t="n">
-        <v>10.4429021341276</v>
+        <v>10.42325542064443</v>
       </c>
       <c r="P18" t="n">
-        <v>366.7638882703598</v>
+        <v>366.6130087543243</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -21391,28 +21549,28 @@
         <v>0.0917</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.02353552668901669</v>
+        <v>-0.01039354277177174</v>
       </c>
       <c r="J19" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K19" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000235447821117396</v>
+        <v>4.657201605939854e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>8.153865642208174</v>
+        <v>8.142174329697713</v>
       </c>
       <c r="N19" t="n">
-        <v>108.6905837195421</v>
+        <v>108.238542123169</v>
       </c>
       <c r="O19" t="n">
-        <v>10.42547762548758</v>
+        <v>10.40377537835035</v>
       </c>
       <c r="P19" t="n">
-        <v>371.227321562521</v>
+        <v>371.0853473327158</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -21468,28 +21626,28 @@
         <v>0.09719999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.105255649285008</v>
+        <v>-0.08975261962489831</v>
       </c>
       <c r="J20" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K20" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005847773436272408</v>
+        <v>0.004300163162922921</v>
       </c>
       <c r="M20" t="n">
-        <v>7.29542036215643</v>
+        <v>7.306479731301422</v>
       </c>
       <c r="N20" t="n">
-        <v>86.24822958712976</v>
+        <v>86.35858856910855</v>
       </c>
       <c r="O20" t="n">
-        <v>9.286992494189374</v>
+        <v>9.29293218360645</v>
       </c>
       <c r="P20" t="n">
-        <v>379.5096381909051</v>
+        <v>379.3429566131908</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -21526,7 +21684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U265"/>
+  <dimension ref="A1:U267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46701,6 +46859,220 @@
         </is>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>-35.6735043846851,174.5083347138201</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>-35.67422310560231,174.50852109127123</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>-35.6749433955085,174.50857316482046</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>-35.675656448250365,174.50870314859466</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>-35.67638212954952,174.50880553646383</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>-35.67710825111216,174.50890770267247</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>-35.67782163603412,174.50909676165634</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>-35.67853972239238,174.50923080156284</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>-35.679199924433334,174.50944372829105</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>-35.679679216749825,174.5101412233452</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>-35.68043935960276,174.5104446877112</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>-35.68123027404671,174.51000872987166</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>-35.68194482096216,174.5102005082554</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>-35.68267744051823,174.51026321760406</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>-35.6833805123926,174.5105165154132</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>-35.684103206221835,174.51064586466944</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>-35.68479374509943,174.51093246228552</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>-35.685443164153085,174.51122556596366</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>-35.68607212085381,174.51163894337893</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>-35.673498326438455,174.508414343632</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>-35.67422147433586,174.50854253253357</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>-35.674938999354765,174.50861420460916</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>-35.675652028531694,174.50873476326817</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>-35.676379569096824,174.50882360545367</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>-35.67710836467036,174.50890690453187</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>-35.67782176627324,174.50909586026947</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>-35.6785332514932,174.509270790419</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>-35.67920113373115,174.50944043757602</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>-35.679605388557675,174.5103010454605</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>-35.68043163407636,174.5104943956689</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>-35.68122900464021,174.51002942972391</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>-35.68193454113141,174.51027377706737</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>-35.68267211786816,174.51029559406453</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>-35.683381293824944,174.5105114865214</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>-35.68410231923198,174.5106521801519</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>-35.684802849486786,174.51088728036427</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>-35.68546542755472,174.51116466360634</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>-35.6860167467891,174.5117561604874</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -20085,7 +20085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20176,35 +20176,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -20263,27 +20268,28 @@
       <c r="P2" t="n">
         <v>379.8641855691841</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.50415866019932 -35.673822024481645, 174.51433584377307 -35.67304766812291)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5041586601993</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.67382202448164</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5143358437731</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.67304766812291</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5092472519862</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.67343484630228</v>
       </c>
     </row>
@@ -20340,27 +20346,28 @@
       <c r="P3" t="n">
         <v>382.6156035128661</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.50423324154127 -35.674549250359284, 174.51441048415796 -35.67377489073175)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5042332415413</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.67454925035928</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.514410484158</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.67377489073175</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5093218628496</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.67416207054552</v>
       </c>
     </row>
@@ -20417,27 +20424,28 @@
       <c r="P4" t="n">
         <v>383.4628429749213</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.50432442423386 -35.67539843961214, 174.514458777615 -35.674312785444634)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5043244242339</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.67539843961214</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.514458777615</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.67431278544463</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5093916009244</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.67485561252839</v>
       </c>
     </row>
@@ -20494,27 +20502,28 @@
       <c r="P5" t="n">
         <v>380.4704108647478</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.50448936151707 -35.67624545567332, 174.51456374619087 -35.674836989493414)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.5044893615171</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.67624545567332</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5145637461909</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.67483698949341</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.509526553854</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.67554122258336</v>
       </c>
     </row>
@@ -20571,27 +20580,28 @@
       <c r="P6" t="n">
         <v>377.3358015198826</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.5046353760732 -35.67697298243375, 174.5147058648408 -35.675545875746785)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.5046353760732</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.67697298243375</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5147058648408</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.67554587574678</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.509670620457</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.67625942909027</v>
       </c>
     </row>
@@ -20648,27 +20658,28 @@
       <c r="P7" t="n">
         <v>373.7486266792573</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.5047815369777 -35.677695240824534, 174.51485087983073 -35.676262510231126)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5047815369777</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.67769524082453</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5148508798307</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.67626251023113</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.5098162084042</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.67697887552783</v>
       </c>
     </row>
@@ -20725,27 +20736,28 @@
       <c r="P8" t="n">
         <v>373.6004324048277</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.50492904135027 -35.678423743207404, 174.51499378018315 -35.67696943774426)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.5049290413503</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.6784237432074</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.5149937801831</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.67696943774426</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.5099614107667</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.67769659047583</v>
       </c>
     </row>
@@ -20802,27 +20814,28 @@
       <c r="P9" t="n">
         <v>375.0694906905487</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.50509446424977 -35.67920897739931, 174.51512045823605 -35.677586518921416)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.5050944642498</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.67920897739931</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.5151204582361</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.67758651892142</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.5101074612429</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.67839774816036</v>
       </c>
     </row>
@@ -20879,27 +20892,28 @@
       <c r="P10" t="n">
         <v>381.2175752377041</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.50555272234732 -35.6806297343726, 174.51487045066162 -35.677205499427004)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.5055527223473</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.6806297343726</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.5148704506616</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.677205499427</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.5102115865045</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.6789176168998</v>
       </c>
     </row>
@@ -20956,27 +20970,28 @@
       <c r="P11" t="n">
         <v>384.9784104806848</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.50623915685603 -35.68148162960383, 174.51513102985894 -35.677374064146676)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.506239156856</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.68148162960383</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.5151310298589</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.67737406414668</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.5106850933575</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.67942784687526</v>
       </c>
     </row>
@@ -21033,27 +21048,28 @@
       <c r="P12" t="n">
         <v>372.8913394922748</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.50609943433858 -35.68111460683455, 174.51614036397956 -35.679554004688846)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.5060994343386</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.68111460683455</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.5161403639796</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.67955400468885</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.5111198991591</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.6803343057617</v>
       </c>
     </row>
@@ -21110,27 +21126,28 @@
       <c r="P13" t="n">
         <v>360.2930310122143</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.5060332160054 -35.68147400353327, 174.51622646942653 -35.68084881320344)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.5060332160054</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.68147400353327</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.5162264694265</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.68084881320344</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.5111298427159</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.68116140836835</v>
       </c>
     </row>
@@ -21187,27 +21204,28 @@
       <c r="P14" t="n">
         <v>363.3617133172329</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.50620301961857 -35.68250560914934, 174.5162768447652 -35.68109213322633)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.5062030196186</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.68250560914934</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.5162768447652</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.68109213322633</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.5112399321919</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.68179887118784</v>
       </c>
     </row>
@@ -21264,27 +21282,28 @@
       <c r="P15" t="n">
         <v>361.5180887713664</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.50638743204823 -35.68331454719002, 174.51640761580265 -35.681667141239075)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.5063874320482</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.68331454719002</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.5164076158026</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.68166714123907</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.5113975239254</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.68249084421455</v>
       </c>
     </row>
@@ -21341,27 +21360,28 @@
       <c r="P16" t="n">
         <v>360.1836785919515</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.50655346269107 -35.683996255983764, 174.51659467188193 -35.6824358723482)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.5065534626911</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-35.68399625598376</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.5165946718819</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-35.6824358723482</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.5115740672865</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-35.68321606416598</v>
       </c>
     </row>
@@ -21418,27 +21438,28 @@
       <c r="P17" t="n">
         <v>363.2427409100812</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.50668559175864 -35.68465934540804, 174.51675928429736 -35.68324443190811)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.5066855917586</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-35.68465934540804</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.5167592842974</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-35.68324443190811</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.511722438028</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-35.68395188865807</v>
       </c>
     </row>
@@ -21495,27 +21516,28 @@
       <c r="P18" t="n">
         <v>366.6130087543243</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.50688691821344 -35.68560886787159, 174.51681018953116 -35.68360919183393)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.5068869182134</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-35.68560886787159</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.5168101895312</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-35.68360919183393</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.5118485538723</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-35.68460902985277</v>
       </c>
     </row>
@@ -21572,27 +21594,28 @@
       <c r="P19" t="n">
         <v>371.0853473327158</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.50738673369275 -35.68684639999546, 174.51671306022578 -35.68343698593317)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.5073867336928</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-35.68684639999546</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.5167130602258</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-35.68343698593317</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.5120498969593</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-35.68514169296432</v>
       </c>
     </row>
@@ -21649,27 +21672,28 @@
       <c r="P20" t="n">
         <v>379.3429566131908</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.50801849030927 -35.687782351716095, 174.51686145118953 -35.68360479387016)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.5080184903093</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-35.68778235171609</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.5168614511895</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-35.68360479387016</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.5124399707494</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-35.68569357279313</v>
       </c>
     </row>

--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U267"/>
+  <dimension ref="A1:U270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17303,6 +17303,187 @@
         </is>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>360.9853846153847</v>
+      </c>
+      <c r="C268" t="n">
+        <v>388.8553846153847</v>
+      </c>
+      <c r="D268" t="n">
+        <v>392.0833333333333</v>
+      </c>
+      <c r="E268" t="n">
+        <v>384.7766666666667</v>
+      </c>
+      <c r="F268" t="n">
+        <v>381.045</v>
+      </c>
+      <c r="G268" t="n">
+        <v>383.8433333333333</v>
+      </c>
+      <c r="H268" t="n">
+        <v>378.2257142857143</v>
+      </c>
+      <c r="I268" t="n">
+        <v>385.135</v>
+      </c>
+      <c r="J268" t="n">
+        <v>381.6166666666667</v>
+      </c>
+      <c r="K268" t="n">
+        <v>397.9866666666667</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>363.6935294117647</v>
+      </c>
+      <c r="N268" t="n">
+        <v>369.2635294117647</v>
+      </c>
+      <c r="O268" t="n">
+        <v>358.2953846153846</v>
+      </c>
+      <c r="P268" t="n">
+        <v>362.1833333333333</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>366.42</v>
+      </c>
+      <c r="R268" t="n">
+        <v>370.1889473684211</v>
+      </c>
+      <c r="S268" t="n">
+        <v>376.055</v>
+      </c>
+      <c r="T268" t="n">
+        <v>380.4435294117647</v>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>358.6558823529411</v>
+      </c>
+      <c r="N269" t="n">
+        <v>362.5258823529412</v>
+      </c>
+      <c r="O269" t="n">
+        <v>359.5076923076923</v>
+      </c>
+      <c r="P269" t="n">
+        <v>358.2466666666667</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>362.62</v>
+      </c>
+      <c r="R269" t="n">
+        <v>368.5421052631579</v>
+      </c>
+      <c r="S269" t="n">
+        <v>369.975</v>
+      </c>
+      <c r="T269" t="n">
+        <v>373.9858823529411</v>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>367.5161538461539</v>
+      </c>
+      <c r="C270" t="n">
+        <v>373.3661538461538</v>
+      </c>
+      <c r="D270" t="n">
+        <v>379.5133333333333</v>
+      </c>
+      <c r="E270" t="n">
+        <v>375.0466666666667</v>
+      </c>
+      <c r="F270" t="n">
+        <v>372.725</v>
+      </c>
+      <c r="G270" t="n">
+        <v>372.5833333333333</v>
+      </c>
+      <c r="H270" t="n">
+        <v>367.1471428571429</v>
+      </c>
+      <c r="I270" t="n">
+        <v>370.475</v>
+      </c>
+      <c r="J270" t="n">
+        <v>374.3966666666666</v>
+      </c>
+      <c r="K270" t="n">
+        <v>365.8266666666667</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>343.8523529411765</v>
+      </c>
+      <c r="N270" t="n">
+        <v>344.8923529411765</v>
+      </c>
+      <c r="O270" t="n">
+        <v>354.8661538461538</v>
+      </c>
+      <c r="P270" t="n">
+        <v>353.4233333333333</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>356.67</v>
+      </c>
+      <c r="R270" t="n">
+        <v>361.5547368421053</v>
+      </c>
+      <c r="S270" t="n">
+        <v>372.415</v>
+      </c>
+      <c r="T270" t="n">
+        <v>375.2223529411765</v>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17314,7 +17495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20072,6 +20253,36 @@
       </c>
       <c r="B275" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -20245,28 +20456,28 @@
         <v>0.0751</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1472049046021205</v>
+        <v>0.110451581005974</v>
       </c>
       <c r="J2" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K2" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009294081170880486</v>
+        <v>0.005198748710583789</v>
       </c>
       <c r="M2" t="n">
-        <v>8.229522527407005</v>
+        <v>8.314704702378556</v>
       </c>
       <c r="N2" t="n">
-        <v>107.4862499522454</v>
+        <v>109.8301979694111</v>
       </c>
       <c r="O2" t="n">
-        <v>10.36755756927568</v>
+        <v>10.47999036113159</v>
       </c>
       <c r="P2" t="n">
-        <v>379.8641855691841</v>
+        <v>380.2610905692717</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20323,28 +20534,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1209121306989092</v>
+        <v>0.1123795276224139</v>
       </c>
       <c r="J3" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K3" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007189678684788037</v>
+        <v>0.006285849599121596</v>
       </c>
       <c r="M3" t="n">
-        <v>7.659212965008837</v>
+        <v>7.656859616575336</v>
       </c>
       <c r="N3" t="n">
-        <v>93.88914911926599</v>
+        <v>93.7742396725256</v>
       </c>
       <c r="O3" t="n">
-        <v>9.689641330785468</v>
+        <v>9.683710015924971</v>
       </c>
       <c r="P3" t="n">
-        <v>382.6156035128661</v>
+        <v>382.7094350015073</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20401,28 +20612,28 @@
         <v>0.0699</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1382511455354142</v>
+        <v>0.1359323537768085</v>
       </c>
       <c r="J4" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K4" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0117031127265762</v>
+        <v>0.01148116872300498</v>
       </c>
       <c r="M4" t="n">
-        <v>6.953075967371662</v>
+        <v>6.945467021078231</v>
       </c>
       <c r="N4" t="n">
-        <v>76.51079934916028</v>
+        <v>76.19367863706978</v>
       </c>
       <c r="O4" t="n">
-        <v>8.747045178182189</v>
+        <v>8.728899050686161</v>
       </c>
       <c r="P4" t="n">
-        <v>383.4628429749213</v>
+        <v>383.4881264277904</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20479,28 +20690,28 @@
         <v>0.0881</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09521553048347173</v>
+        <v>0.08954070292463782</v>
       </c>
       <c r="J5" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K5" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004133045754396769</v>
+        <v>0.003717025652530848</v>
       </c>
       <c r="M5" t="n">
-        <v>7.987047843003386</v>
+        <v>7.954917994757949</v>
       </c>
       <c r="N5" t="n">
-        <v>101.7908013321838</v>
+        <v>101.1798699483663</v>
       </c>
       <c r="O5" t="n">
-        <v>10.08914274515847</v>
+        <v>10.0588205048289</v>
       </c>
       <c r="P5" t="n">
-        <v>380.4704108647478</v>
+        <v>380.5324299195077</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20557,28 +20768,28 @@
         <v>0.0922</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04254324258638638</v>
+        <v>0.03964205089760683</v>
       </c>
       <c r="J6" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K6" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008166669395689441</v>
+        <v>0.0007215984223007954</v>
       </c>
       <c r="M6" t="n">
-        <v>8.11647337941373</v>
+        <v>8.080648962846368</v>
       </c>
       <c r="N6" t="n">
-        <v>106.3158804745703</v>
+        <v>105.5384202095546</v>
       </c>
       <c r="O6" t="n">
-        <v>10.3109592412428</v>
+        <v>10.27318938838152</v>
       </c>
       <c r="P6" t="n">
-        <v>377.3358015198826</v>
+        <v>377.3671364572182</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20635,28 +20846,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03350274650379508</v>
+        <v>0.04025613417567021</v>
       </c>
       <c r="J7" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K7" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000513689563172548</v>
+        <v>0.0007529194987347942</v>
       </c>
       <c r="M7" t="n">
-        <v>7.798673020536812</v>
+        <v>7.780049122235654</v>
       </c>
       <c r="N7" t="n">
-        <v>103.7266151684906</v>
+        <v>103.1893453732395</v>
       </c>
       <c r="O7" t="n">
-        <v>10.18462641280919</v>
+        <v>10.15821565892551</v>
       </c>
       <c r="P7" t="n">
-        <v>373.7486266792573</v>
+        <v>373.675710684191</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20713,28 +20924,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005059948390875652</v>
+        <v>0.002954011945104613</v>
       </c>
       <c r="J8" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K8" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L8" t="n">
-        <v>9.667994423590009e-06</v>
+        <v>3.35488168867748e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>8.806889494551456</v>
+        <v>8.77805012242796</v>
       </c>
       <c r="N8" t="n">
-        <v>121.60493065307</v>
+        <v>120.7916984852079</v>
       </c>
       <c r="O8" t="n">
-        <v>11.02746256638715</v>
+        <v>10.99052767091771</v>
       </c>
       <c r="P8" t="n">
-        <v>373.6004324048277</v>
+        <v>373.6236381719279</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20791,28 +21002,28 @@
         <v>0.0905</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1235323675302577</v>
+        <v>-0.1123869022339896</v>
       </c>
       <c r="J9" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K9" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006596832970009125</v>
+        <v>0.005532829883444945</v>
       </c>
       <c r="M9" t="n">
-        <v>7.724843709955027</v>
+        <v>7.721535474767698</v>
       </c>
       <c r="N9" t="n">
-        <v>103.3605802622336</v>
+        <v>103.2245808926304</v>
       </c>
       <c r="O9" t="n">
-        <v>10.1666405593113</v>
+        <v>10.15994984695448</v>
       </c>
       <c r="P9" t="n">
-        <v>375.0694906905487</v>
+        <v>374.9466381095033</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20869,28 +21080,28 @@
         <v>0.0843</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05590536259378164</v>
+        <v>-0.05923649174870152</v>
       </c>
       <c r="J10" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K10" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001390469871446309</v>
+        <v>0.001588661622797582</v>
       </c>
       <c r="M10" t="n">
-        <v>7.716675618080548</v>
+        <v>7.680907891026494</v>
       </c>
       <c r="N10" t="n">
-        <v>101.6535063413776</v>
+        <v>100.9314495104756</v>
       </c>
       <c r="O10" t="n">
-        <v>10.08233635331502</v>
+        <v>10.0464645279061</v>
       </c>
       <c r="P10" t="n">
-        <v>381.2175752377041</v>
+        <v>381.2543857955137</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20947,28 +21158,28 @@
         <v>0.0314</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.03112783595967226</v>
+        <v>-0.03530768484714921</v>
       </c>
       <c r="J11" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K11" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001406375871468857</v>
+        <v>0.000182960672848842</v>
       </c>
       <c r="M11" t="n">
-        <v>14.45894085119625</v>
+        <v>14.47355119066006</v>
       </c>
       <c r="N11" t="n">
-        <v>320.4688226761854</v>
+        <v>319.9905363772021</v>
       </c>
       <c r="O11" t="n">
-        <v>17.90164301610848</v>
+        <v>17.88827930174398</v>
       </c>
       <c r="P11" t="n">
-        <v>384.9784104806848</v>
+        <v>385.0247653040273</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21028,7 +21239,7 @@
         <v>0.0886807957129476</v>
       </c>
       <c r="J12" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K12" t="n">
         <v>166</v>
@@ -21103,28 +21314,28 @@
         <v>0.1031</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02522543483365751</v>
+        <v>-0.03713702707599802</v>
       </c>
       <c r="J13" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K13" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002718830159212926</v>
+        <v>0.000599631966918146</v>
       </c>
       <c r="M13" t="n">
-        <v>7.848681030437401</v>
+        <v>7.836344390853483</v>
       </c>
       <c r="N13" t="n">
-        <v>107.0070073873791</v>
+        <v>106.7625387000072</v>
       </c>
       <c r="O13" t="n">
-        <v>10.34441914209682</v>
+        <v>10.33259593229151</v>
       </c>
       <c r="P13" t="n">
-        <v>360.2930310122143</v>
+        <v>360.4244418931859</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21181,28 +21392,28 @@
         <v>0.1014</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1004698633628982</v>
+        <v>-0.1058281492752338</v>
       </c>
       <c r="J14" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K14" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003672380357343186</v>
+        <v>0.004146001884439143</v>
       </c>
       <c r="M14" t="n">
-        <v>9.158696523714585</v>
+        <v>9.151709749112859</v>
       </c>
       <c r="N14" t="n">
-        <v>126.2612805944267</v>
+        <v>126.03933453694</v>
       </c>
       <c r="O14" t="n">
-        <v>11.23660449577303</v>
+        <v>11.22672412313316</v>
       </c>
       <c r="P14" t="n">
-        <v>363.3617133172329</v>
+        <v>363.4203374116236</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21259,28 +21470,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07944389035007883</v>
+        <v>-0.08491008320282557</v>
       </c>
       <c r="J15" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K15" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003015304237610761</v>
+        <v>0.003543734999163606</v>
       </c>
       <c r="M15" t="n">
-        <v>7.710328073281554</v>
+        <v>7.634084977527174</v>
       </c>
       <c r="N15" t="n">
-        <v>96.34688969893143</v>
+        <v>95.19681897569355</v>
       </c>
       <c r="O15" t="n">
-        <v>9.815645149399577</v>
+        <v>9.756885721155781</v>
       </c>
       <c r="P15" t="n">
-        <v>361.5180887713664</v>
+        <v>361.5770646567054</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21337,28 +21548,28 @@
         <v>0.068</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03313370767529479</v>
+        <v>-0.03696983685764744</v>
       </c>
       <c r="J16" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K16" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004927356586965637</v>
+        <v>0.0006298675250735464</v>
       </c>
       <c r="M16" t="n">
-        <v>7.904242891525439</v>
+        <v>7.846201534066376</v>
       </c>
       <c r="N16" t="n">
-        <v>102.5540028907834</v>
+        <v>101.4319575185409</v>
       </c>
       <c r="O16" t="n">
-        <v>10.12689502714348</v>
+        <v>10.07134338201915</v>
       </c>
       <c r="P16" t="n">
-        <v>360.1836785919515</v>
+        <v>360.2257044392473</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21415,28 +21626,28 @@
         <v>0.1165</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02641208313066113</v>
+        <v>-0.02823248080807905</v>
       </c>
       <c r="J17" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K17" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005055353868049783</v>
+        <v>0.0005917209234788112</v>
       </c>
       <c r="M17" t="n">
-        <v>6.057886365407633</v>
+        <v>6.020871339399952</v>
       </c>
       <c r="N17" t="n">
-        <v>65.10544505246902</v>
+        <v>64.47710839180631</v>
       </c>
       <c r="O17" t="n">
-        <v>8.068794522880665</v>
+        <v>8.029763906355299</v>
       </c>
       <c r="P17" t="n">
-        <v>363.2427409100812</v>
+        <v>363.2626895912334</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21493,28 +21704,28 @@
         <v>0.1108</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03726415622533924</v>
+        <v>0.03505293253569609</v>
       </c>
       <c r="J18" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K18" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006010139629261113</v>
+        <v>0.0005458640469240272</v>
       </c>
       <c r="M18" t="n">
-        <v>7.833067319529869</v>
+        <v>7.77379569345996</v>
       </c>
       <c r="N18" t="n">
-        <v>108.6442535639935</v>
+        <v>107.4339242725545</v>
       </c>
       <c r="O18" t="n">
-        <v>10.42325542064443</v>
+        <v>10.36503373234041</v>
       </c>
       <c r="P18" t="n">
-        <v>366.6130087543243</v>
+        <v>366.6371429987266</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21571,28 +21782,28 @@
         <v>0.0917</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.01039354277177174</v>
+        <v>-0.004922460790849698</v>
       </c>
       <c r="J19" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K19" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L19" t="n">
-        <v>4.657201605939854e-05</v>
+        <v>1.073075037116844e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>8.142174329697713</v>
+        <v>8.068345899206983</v>
       </c>
       <c r="N19" t="n">
-        <v>108.238542123169</v>
+        <v>106.9524070419942</v>
       </c>
       <c r="O19" t="n">
-        <v>10.40377537835035</v>
+        <v>10.34177968446409</v>
       </c>
       <c r="P19" t="n">
-        <v>371.0853473327158</v>
+        <v>371.0256581263194</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21649,28 +21860,28 @@
         <v>0.09719999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.08975261962489831</v>
+        <v>-0.09118425754600688</v>
       </c>
       <c r="J20" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K20" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004300163162922921</v>
+        <v>0.004566323369908587</v>
       </c>
       <c r="M20" t="n">
-        <v>7.306479731301422</v>
+        <v>7.245496833425292</v>
       </c>
       <c r="N20" t="n">
-        <v>86.35858856910855</v>
+        <v>85.31910127421393</v>
       </c>
       <c r="O20" t="n">
-        <v>9.29293218360645</v>
+        <v>9.236833942115336</v>
       </c>
       <c r="P20" t="n">
-        <v>379.3429566131908</v>
+        <v>379.3585679385495</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21708,7 +21919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U267"/>
+  <dimension ref="A1:U270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47097,6 +47308,275 @@
         </is>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>-35.6735200022441,174.50812943282207</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>-35.67422390256536,174.5085106160211</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>-35.674938463523695,174.50861920678946</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>-35.67565978713686,174.50867926517637</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>-35.676385314687245,174.5087830590741</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>-35.67710092143593,174.50895921901522</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>-35.67782929992197,174.50904371969716</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>-35.67853366359692,174.50926824370345</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>-35.679217076710366,174.5093970538542</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>-35.67971413961879,174.51006562260508</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>-35.681228343704866,174.5100402073862</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>-35.68194154083913,174.5102238871512</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>-35.68267662554793,174.51026817488537</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>-35.68338548207398,174.5104845331067</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>-35.68409904654245,174.5106754821031</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>-35.684808777625044,174.51085786101672</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>-35.685460322456166,174.51117862880227</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>-35.68606391306397,174.51165631784463</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>-35.68123174733279,174.5099847053396</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>-35.68195183411972,174.51015052224767</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>-35.6826744669029,174.51028130543162</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>-35.68339212142028,174.51044180560686</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>-35.68410485785722,174.51063410480518</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>-35.68481233723489,174.5108401958565</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>-35.68548273327412,174.51111732309099</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>-35.686093082724945,174.51159457069826</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>-35.67351453700711,174.5082012697591</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>-35.67423686499696,174.5083402366367</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>-35.67495321249206,174.5084815190109</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>-35.675674598949115,174.50857331424152</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>-35.67639814774241,174.5086924963996</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>-35.67711835777076,174.5088366681493</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>-35.67784671368021,174.5089231980058</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>-35.67855937174967,174.5091093719449</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>-35.67924380461186,174.5093243222808</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>-35.67985696908394,174.50975642481447</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>-35.68124174901859,174.5098216080971</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>-35.681978773116704,174.50995851414385</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>-35.682682731656726,174.51023103276498</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>-35.68340025614504,174.51038945445993</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>-35.684113957124445,174.5105693166546</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>-35.68482744023624,174.51076524452216</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>-35.68547373946268,174.51114192604513</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>-35.68608749749983,174.51160639366606</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U270"/>
+  <dimension ref="A1:U271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17453,7 +17453,9 @@
       <c r="K270" t="n">
         <v>365.8266666666667</v>
       </c>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>358.27</v>
+      </c>
       <c r="M270" t="n">
         <v>343.8523529411765</v>
       </c>
@@ -17481,6 +17483,73 @@
       <c r="U270" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>376.7130769230769</v>
+      </c>
+      <c r="C271" t="n">
+        <v>385.2130769230769</v>
+      </c>
+      <c r="D271" t="n">
+        <v>383.6733333333333</v>
+      </c>
+      <c r="E271" t="n">
+        <v>386.9466666666667</v>
+      </c>
+      <c r="F271" t="n">
+        <v>382.16</v>
+      </c>
+      <c r="G271" t="n">
+        <v>384.9533333333333</v>
+      </c>
+      <c r="H271" t="n">
+        <v>381.7185714285715</v>
+      </c>
+      <c r="I271" t="n">
+        <v>383.54</v>
+      </c>
+      <c r="J271" t="n">
+        <v>388.3766666666667</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>389.48</v>
+      </c>
+      <c r="M271" t="n">
+        <v>360.4982352941177</v>
+      </c>
+      <c r="N271" t="n">
+        <v>371.2382352941176</v>
+      </c>
+      <c r="O271" t="n">
+        <v>361.2030769230769</v>
+      </c>
+      <c r="P271" t="n">
+        <v>365.0733333333333</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="R271" t="n">
+        <v>371.3978947368421</v>
+      </c>
+      <c r="S271" t="n">
+        <v>376.35</v>
+      </c>
+      <c r="T271" t="n">
+        <v>377.8082352941177</v>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20283,6 +20352,16 @@
       </c>
       <c r="B278" t="n">
         <v>-0.01</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -20456,28 +20535,28 @@
         <v>0.0751</v>
       </c>
       <c r="I2" t="n">
-        <v>0.110451581005974</v>
+        <v>0.1044105378028896</v>
       </c>
       <c r="J2" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K2" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005198748710583789</v>
+        <v>0.004686345368436262</v>
       </c>
       <c r="M2" t="n">
-        <v>8.314704702378556</v>
+        <v>8.30493765997555</v>
       </c>
       <c r="N2" t="n">
-        <v>109.8301979694111</v>
+        <v>109.5277397071579</v>
       </c>
       <c r="O2" t="n">
-        <v>10.47999036113159</v>
+        <v>10.46555013877235</v>
       </c>
       <c r="P2" t="n">
-        <v>380.2610905692717</v>
+        <v>380.3266436220666</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20534,28 +20613,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1123795276224139</v>
+        <v>0.1120230366643187</v>
       </c>
       <c r="J3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K3" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006285849599121596</v>
+        <v>0.006303992082836496</v>
       </c>
       <c r="M3" t="n">
-        <v>7.656859616575336</v>
+        <v>7.625241632964451</v>
       </c>
       <c r="N3" t="n">
-        <v>93.7742396725256</v>
+        <v>93.36893525899113</v>
       </c>
       <c r="O3" t="n">
-        <v>9.683710015924971</v>
+        <v>9.662760229820003</v>
       </c>
       <c r="P3" t="n">
-        <v>382.7094350015073</v>
+        <v>382.7133612210945</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20612,28 +20691,28 @@
         <v>0.0699</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1359323537768085</v>
+        <v>0.1328313709764382</v>
       </c>
       <c r="J4" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K4" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01148116872300498</v>
+        <v>0.01106643408518915</v>
       </c>
       <c r="M4" t="n">
-        <v>6.945467021078231</v>
+        <v>6.927054639923439</v>
       </c>
       <c r="N4" t="n">
-        <v>76.19367863706978</v>
+        <v>75.90314596539328</v>
       </c>
       <c r="O4" t="n">
-        <v>8.728899050686161</v>
+        <v>8.712241156292293</v>
       </c>
       <c r="P4" t="n">
-        <v>383.4881264277904</v>
+        <v>383.5217705718279</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20690,28 +20769,28 @@
         <v>0.0881</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08954070292463782</v>
+        <v>0.09339009483766153</v>
       </c>
       <c r="J5" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K5" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003717025652530848</v>
+        <v>0.004077866577132494</v>
       </c>
       <c r="M5" t="n">
-        <v>7.954917994757949</v>
+        <v>7.940945700718959</v>
       </c>
       <c r="N5" t="n">
-        <v>101.1798699483663</v>
+        <v>100.8091546111229</v>
       </c>
       <c r="O5" t="n">
-        <v>10.0588205048289</v>
+        <v>10.04037621860471</v>
       </c>
       <c r="P5" t="n">
-        <v>380.5324299195077</v>
+        <v>380.4902929155039</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20768,28 +20847,28 @@
         <v>0.0922</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03964205089760683</v>
+        <v>0.04314107774348526</v>
       </c>
       <c r="J6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K6" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007215984223007954</v>
+        <v>0.0008621080764571465</v>
       </c>
       <c r="M6" t="n">
-        <v>8.080648962846368</v>
+        <v>8.061611449723502</v>
       </c>
       <c r="N6" t="n">
-        <v>105.5384202095546</v>
+        <v>105.1299256314484</v>
       </c>
       <c r="O6" t="n">
-        <v>10.27318938838152</v>
+        <v>10.25328852766021</v>
       </c>
       <c r="P6" t="n">
-        <v>377.3671364572182</v>
+        <v>377.3293588830329</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20846,28 +20925,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04025613417567021</v>
+        <v>0.04988163097622697</v>
       </c>
       <c r="J7" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K7" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007529194987347942</v>
+        <v>0.001161362557072998</v>
       </c>
       <c r="M7" t="n">
-        <v>7.780049122235654</v>
+        <v>7.79306882791746</v>
       </c>
       <c r="N7" t="n">
-        <v>103.1893453732395</v>
+        <v>103.1904116402695</v>
       </c>
       <c r="O7" t="n">
-        <v>10.15821565892551</v>
+        <v>10.15826814177838</v>
       </c>
       <c r="P7" t="n">
-        <v>373.675710684191</v>
+        <v>373.5709658001038</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20924,28 +21003,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002954011945104613</v>
+        <v>0.01083224604792061</v>
       </c>
       <c r="J8" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K8" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L8" t="n">
-        <v>3.35488168867748e-06</v>
+        <v>4.545999859228989e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>8.77805012242796</v>
+        <v>8.771329616602198</v>
       </c>
       <c r="N8" t="n">
-        <v>120.7916984852079</v>
+        <v>120.5330412140223</v>
       </c>
       <c r="O8" t="n">
-        <v>10.99052767091771</v>
+        <v>10.97875408295597</v>
       </c>
       <c r="P8" t="n">
-        <v>373.6236381719279</v>
+        <v>373.5372509529764</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21002,28 +21081,28 @@
         <v>0.0905</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1123869022339896</v>
+        <v>-0.101515534825446</v>
       </c>
       <c r="J9" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K9" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005532829883444945</v>
+        <v>0.004538083095718237</v>
       </c>
       <c r="M9" t="n">
-        <v>7.721535474767698</v>
+        <v>7.739364378242454</v>
       </c>
       <c r="N9" t="n">
-        <v>103.2245808926304</v>
+        <v>103.3394072080773</v>
       </c>
       <c r="O9" t="n">
-        <v>10.15994984695448</v>
+        <v>10.16559920555977</v>
       </c>
       <c r="P9" t="n">
-        <v>374.9466381095033</v>
+        <v>374.8260104886718</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21080,28 +21159,28 @@
         <v>0.0843</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05923649174870152</v>
+        <v>-0.05123150523441467</v>
       </c>
       <c r="J10" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K10" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001588661622797582</v>
+        <v>0.001196391149497655</v>
       </c>
       <c r="M10" t="n">
-        <v>7.680907891026494</v>
+        <v>7.687088043725589</v>
       </c>
       <c r="N10" t="n">
-        <v>100.9314495104756</v>
+        <v>100.8172457063065</v>
       </c>
       <c r="O10" t="n">
-        <v>10.0464645279061</v>
+        <v>10.04077913840886</v>
       </c>
       <c r="P10" t="n">
-        <v>381.2543857955137</v>
+        <v>381.1658537631938</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21161,7 +21240,7 @@
         <v>-0.03530768484714921</v>
       </c>
       <c r="J11" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K11" t="n">
         <v>238</v>
@@ -21236,28 +21315,28 @@
         <v>0.0527</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0886807957129476</v>
+        <v>0.08559651821100568</v>
       </c>
       <c r="J12" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K12" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0027548714989728</v>
+        <v>0.002576611121261174</v>
       </c>
       <c r="M12" t="n">
-        <v>9.218273477012685</v>
+        <v>9.292947615389561</v>
       </c>
       <c r="N12" t="n">
-        <v>134.8181896923085</v>
+        <v>136.1304206907195</v>
       </c>
       <c r="O12" t="n">
-        <v>11.61112353272966</v>
+        <v>11.66749419073005</v>
       </c>
       <c r="P12" t="n">
-        <v>372.8913394922748</v>
+        <v>372.92436913034</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21314,28 +21393,28 @@
         <v>0.1031</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03713702707599802</v>
+        <v>-0.03618346488106432</v>
       </c>
       <c r="J13" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K13" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000599631966918146</v>
+        <v>0.0005745854277456885</v>
       </c>
       <c r="M13" t="n">
-        <v>7.836344390853483</v>
+        <v>7.806991112246945</v>
       </c>
       <c r="N13" t="n">
-        <v>106.7625387000072</v>
+        <v>106.3068620041617</v>
       </c>
       <c r="O13" t="n">
-        <v>10.33259593229151</v>
+        <v>10.31052190745753</v>
       </c>
       <c r="P13" t="n">
-        <v>360.4244418931859</v>
+        <v>360.4139039273411</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21392,28 +21471,28 @@
         <v>0.1014</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1058281492752338</v>
+        <v>-0.0960931876896134</v>
       </c>
       <c r="J14" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K14" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004146001884439143</v>
+        <v>0.003440690570266636</v>
       </c>
       <c r="M14" t="n">
-        <v>9.151709749112859</v>
+        <v>9.158999538946238</v>
       </c>
       <c r="N14" t="n">
-        <v>126.03933453694</v>
+        <v>125.9693831642382</v>
       </c>
       <c r="O14" t="n">
-        <v>11.22672412313316</v>
+        <v>11.22360829520695</v>
       </c>
       <c r="P14" t="n">
-        <v>363.4203374116236</v>
+        <v>363.3141656051212</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21470,28 +21549,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08491008320282557</v>
+        <v>-0.08320676044534336</v>
       </c>
       <c r="J15" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K15" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003543734999163606</v>
+        <v>0.003436431962563491</v>
       </c>
       <c r="M15" t="n">
-        <v>7.634084977527174</v>
+        <v>7.609495947684778</v>
       </c>
       <c r="N15" t="n">
-        <v>95.19681897569355</v>
+        <v>94.80213131796552</v>
       </c>
       <c r="O15" t="n">
-        <v>9.756885721155781</v>
+        <v>9.736638604670789</v>
       </c>
       <c r="P15" t="n">
-        <v>361.5770646567054</v>
+        <v>361.5586247466783</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21548,28 +21627,28 @@
         <v>0.068</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03696983685764744</v>
+        <v>-0.031673322597576</v>
       </c>
       <c r="J16" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K16" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006298675250735464</v>
+        <v>0.0004660838187606764</v>
       </c>
       <c r="M16" t="n">
-        <v>7.846201534066376</v>
+        <v>7.835924357557176</v>
       </c>
       <c r="N16" t="n">
-        <v>101.4319575185409</v>
+        <v>101.1427354558881</v>
       </c>
       <c r="O16" t="n">
-        <v>10.07134338201915</v>
+        <v>10.05697446829254</v>
       </c>
       <c r="P16" t="n">
-        <v>360.2257044392473</v>
+        <v>360.1676387286945</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21626,28 +21705,28 @@
         <v>0.1165</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02823248080807905</v>
+        <v>-0.03161854111156671</v>
       </c>
       <c r="J17" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K17" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005917209234788112</v>
+        <v>0.0007480892432623065</v>
       </c>
       <c r="M17" t="n">
-        <v>6.020871339399952</v>
+        <v>6.009329008960122</v>
       </c>
       <c r="N17" t="n">
-        <v>64.47710839180631</v>
+        <v>64.26108864901758</v>
       </c>
       <c r="O17" t="n">
-        <v>8.029763906355299</v>
+        <v>8.016301432020729</v>
       </c>
       <c r="P17" t="n">
-        <v>363.2626895912334</v>
+        <v>363.299628816313</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21704,28 +21783,28 @@
         <v>0.1108</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03505293253569609</v>
+        <v>0.03851839799988346</v>
       </c>
       <c r="J18" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K18" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005458640469240272</v>
+        <v>0.0006647130640863308</v>
       </c>
       <c r="M18" t="n">
-        <v>7.77379569345996</v>
+        <v>7.756385190331047</v>
       </c>
       <c r="N18" t="n">
-        <v>107.4339242725545</v>
+        <v>107.0375852553382</v>
       </c>
       <c r="O18" t="n">
-        <v>10.36503373234041</v>
+        <v>10.34589702516598</v>
       </c>
       <c r="P18" t="n">
-        <v>366.6371429987266</v>
+        <v>366.5993948375268</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21782,28 +21861,28 @@
         <v>0.0917</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.004922460790849698</v>
+        <v>5.831778871499049e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K19" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L19" t="n">
-        <v>1.073075037116844e-05</v>
+        <v>1.518301373515385e-09</v>
       </c>
       <c r="M19" t="n">
-        <v>8.068345899206983</v>
+        <v>8.056049400785961</v>
       </c>
       <c r="N19" t="n">
-        <v>106.9524070419942</v>
+        <v>106.6148440044781</v>
       </c>
       <c r="O19" t="n">
-        <v>10.34177968446409</v>
+        <v>10.32544643124345</v>
       </c>
       <c r="P19" t="n">
-        <v>371.0256581263194</v>
+        <v>370.9709955283182</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21860,28 +21939,28 @@
         <v>0.09719999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.09118425754600688</v>
+        <v>-0.09042659803216428</v>
       </c>
       <c r="J20" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K20" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004566323369908587</v>
+        <v>0.00453504481108058</v>
       </c>
       <c r="M20" t="n">
-        <v>7.245496833425292</v>
+        <v>7.21734747587412</v>
       </c>
       <c r="N20" t="n">
-        <v>85.31910127421393</v>
+        <v>84.94600056098318</v>
       </c>
       <c r="O20" t="n">
-        <v>9.236833942115336</v>
+        <v>9.216615461273362</v>
       </c>
       <c r="P20" t="n">
-        <v>379.3585679385495</v>
+        <v>379.3503212199642</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21919,7 +21998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U270"/>
+  <dimension ref="A1:U271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47530,7 +47609,11 @@
           <t>-35.67985696908394,174.50975642481447</t>
         </is>
       </c>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>-35.68051035590214,174.50998787326796</t>
+        </is>
+      </c>
       <c r="M270" t="inlineStr">
         <is>
           <t>-35.68124174901859,174.5098216080971</t>
@@ -47574,6 +47657,109 @@
       <c r="U270" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>-35.67350684054214,174.50830243374682</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>-35.67422695071534,174.50847055114878</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>-35.674948331386986,174.50852708633286</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>-35.67565648377045,174.50870289451575</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>-35.67638359486764,174.5087951957763</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>-35.67709920257209,174.50897129995892</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>-35.67782380967943,174.5090817178202</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>-35.67853646063996,174.5092509585481</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>-35.679192051655676,174.5094651515149</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>-35.680457711863525,174.51032660413722</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>-35.6812305025713,174.51000500337972</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>-35.68193852402064,174.51024538932833</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>-35.68267144808477,174.51029966819934</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>-35.68338060796346,174.5105159003689</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>-35.68411077620807,174.5105919652872</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>-35.68480616451258,174.51087082901603</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>-35.6854592350884,174.51118160333834</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>-35.68607581688268,174.51163111952482</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23355,7 +23355,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-35.68552698349209,174.51099627445726</t>
+          <t>-35.685526983492096,174.51099627445726</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -23990,7 +23990,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-35.67566359792712,174.50865200613552</t>
+          <t>-35.67566359792711,174.50865200613552</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -25731,7 +25731,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-35.68045735763898,174.5103288833244</t>
+          <t>-35.680457357638986,174.5103288833244</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -25855,7 +25855,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-35.68408873907054,174.51074887234705</t>
+          <t>-35.684088739070546,174.51074887234705</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -43844,7 +43844,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>-35.67638020921026,174.5088190882063</t>
+          <t>-35.67638020921025,174.5088190882063</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">

--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U271"/>
+  <dimension ref="A1:U272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17553,6 +17553,71 @@
         </is>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>376.8530769230769</v>
+      </c>
+      <c r="C272" t="n">
+        <v>382.2930769230769</v>
+      </c>
+      <c r="D272" t="n">
+        <v>383.24</v>
+      </c>
+      <c r="E272" t="n">
+        <v>384.68</v>
+      </c>
+      <c r="F272" t="n">
+        <v>382.07</v>
+      </c>
+      <c r="G272" t="n">
+        <v>386.3</v>
+      </c>
+      <c r="H272" t="n">
+        <v>382.7742857142857</v>
+      </c>
+      <c r="I272" t="n">
+        <v>389.45</v>
+      </c>
+      <c r="J272" t="n">
+        <v>392.11</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>356.0494117647058</v>
+      </c>
+      <c r="N272" t="n">
+        <v>356.1594117647059</v>
+      </c>
+      <c r="O272" t="n">
+        <v>360.7130769230769</v>
+      </c>
+      <c r="P272" t="n">
+        <v>362.47</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>363.76</v>
+      </c>
+      <c r="R272" t="n">
+        <v>373.1210526315789</v>
+      </c>
+      <c r="S272" t="n">
+        <v>377.12</v>
+      </c>
+      <c r="T272" t="n">
+        <v>382.2194117647059</v>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17564,7 +17629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20362,6 +20427,16 @@
       </c>
       <c r="B279" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -20535,28 +20610,28 @@
         <v>0.0751</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1044105378028896</v>
+        <v>0.09863937312445345</v>
       </c>
       <c r="J2" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K2" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004686345368436262</v>
+        <v>0.004219139610891487</v>
       </c>
       <c r="M2" t="n">
-        <v>8.30493765997555</v>
+        <v>8.293969520432817</v>
       </c>
       <c r="N2" t="n">
-        <v>109.5277397071579</v>
+        <v>109.2158429276841</v>
       </c>
       <c r="O2" t="n">
-        <v>10.46555013877235</v>
+        <v>10.45063839809244</v>
       </c>
       <c r="P2" t="n">
-        <v>380.3266436220666</v>
+        <v>380.3893807212586</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20613,28 +20688,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1120230366643187</v>
+        <v>0.1090152622022305</v>
       </c>
       <c r="J3" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K3" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006303992082836496</v>
+        <v>0.006023742781709363</v>
       </c>
       <c r="M3" t="n">
-        <v>7.625241632964451</v>
+        <v>7.60515483297793</v>
       </c>
       <c r="N3" t="n">
-        <v>93.36893525899113</v>
+        <v>93.01302356959778</v>
       </c>
       <c r="O3" t="n">
-        <v>9.662760229820003</v>
+        <v>9.644325977983002</v>
       </c>
       <c r="P3" t="n">
-        <v>382.7133612210945</v>
+        <v>382.7465492673762</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20691,28 +20766,28 @@
         <v>0.0699</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1328313709764382</v>
+        <v>0.1293957240405555</v>
       </c>
       <c r="J4" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K4" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01106643408518915</v>
+        <v>0.01059805458321217</v>
       </c>
       <c r="M4" t="n">
-        <v>6.927054639923439</v>
+        <v>6.910202957821162</v>
       </c>
       <c r="N4" t="n">
-        <v>75.90314596539328</v>
+        <v>75.62722679118204</v>
       </c>
       <c r="O4" t="n">
-        <v>8.712241156292293</v>
+        <v>8.696391596011649</v>
       </c>
       <c r="P4" t="n">
-        <v>383.5217705718279</v>
+        <v>383.5591158481175</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20769,28 +20844,28 @@
         <v>0.0881</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09339009483766153</v>
+        <v>0.0950435019280766</v>
       </c>
       <c r="J5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K5" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004077866577132494</v>
+        <v>0.004262317943475979</v>
       </c>
       <c r="M5" t="n">
-        <v>7.940945700718959</v>
+        <v>7.915178903345709</v>
       </c>
       <c r="N5" t="n">
-        <v>100.8091546111229</v>
+        <v>100.382618571697</v>
       </c>
       <c r="O5" t="n">
-        <v>10.04037621860471</v>
+        <v>10.01911266388881</v>
       </c>
       <c r="P5" t="n">
-        <v>380.4902929155039</v>
+        <v>380.4721606380192</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20847,28 +20922,28 @@
         <v>0.0922</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04314107774348526</v>
+        <v>0.04647449815123719</v>
       </c>
       <c r="J6" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K6" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008621080764571465</v>
+        <v>0.001009211837864399</v>
       </c>
       <c r="M6" t="n">
-        <v>8.061611449723502</v>
+        <v>8.041875281860186</v>
       </c>
       <c r="N6" t="n">
-        <v>105.1299256314484</v>
+        <v>104.7203922008288</v>
       </c>
       <c r="O6" t="n">
-        <v>10.25328852766021</v>
+        <v>10.23329820736349</v>
       </c>
       <c r="P6" t="n">
-        <v>377.3293588830329</v>
+        <v>377.2933001805101</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20925,28 +21000,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04988163097622697</v>
+        <v>0.06053359910291462</v>
       </c>
       <c r="J7" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K7" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001161362557072998</v>
+        <v>0.001715937646321053</v>
       </c>
       <c r="M7" t="n">
-        <v>7.79306882791746</v>
+        <v>7.813048076410374</v>
       </c>
       <c r="N7" t="n">
-        <v>103.1904116402695</v>
+        <v>103.3067385282514</v>
       </c>
       <c r="O7" t="n">
-        <v>10.15826814177838</v>
+        <v>10.16399225345294</v>
       </c>
       <c r="P7" t="n">
-        <v>373.5709658001038</v>
+        <v>373.4548295082641</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21003,28 +21078,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01083224604792061</v>
+        <v>0.01954356857392812</v>
       </c>
       <c r="J8" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K8" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L8" t="n">
-        <v>4.545999859228989e-05</v>
+        <v>0.0001490099903144193</v>
       </c>
       <c r="M8" t="n">
-        <v>8.771329616602198</v>
+        <v>8.767978689094202</v>
       </c>
       <c r="N8" t="n">
-        <v>120.5330412140223</v>
+        <v>120.3471863240222</v>
       </c>
       <c r="O8" t="n">
-        <v>10.97875408295597</v>
+        <v>10.97028651968681</v>
       </c>
       <c r="P8" t="n">
-        <v>373.5372509529764</v>
+        <v>373.4415576271709</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21081,28 +21156,28 @@
         <v>0.0905</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.101515534825446</v>
+        <v>-0.0853514438056506</v>
       </c>
       <c r="J9" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K9" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004538083095718237</v>
+        <v>0.003204330706641945</v>
       </c>
       <c r="M9" t="n">
-        <v>7.739364378242454</v>
+        <v>7.783703005843335</v>
       </c>
       <c r="N9" t="n">
-        <v>103.3394072080773</v>
+        <v>104.1471801446165</v>
       </c>
       <c r="O9" t="n">
-        <v>10.16559920555977</v>
+        <v>10.20525257622841</v>
       </c>
       <c r="P9" t="n">
-        <v>374.8260104886718</v>
+        <v>374.6463409344177</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21159,28 +21234,28 @@
         <v>0.0843</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05123150523441467</v>
+        <v>-0.03998167143016938</v>
       </c>
       <c r="J10" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K10" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001196391149497655</v>
+        <v>0.0007313414100990068</v>
       </c>
       <c r="M10" t="n">
-        <v>7.687088043725589</v>
+        <v>7.708602830597493</v>
       </c>
       <c r="N10" t="n">
-        <v>100.8172457063065</v>
+        <v>101.0163317031496</v>
       </c>
       <c r="O10" t="n">
-        <v>10.04077913840886</v>
+        <v>10.05068812087758</v>
       </c>
       <c r="P10" t="n">
-        <v>381.1658537631938</v>
+        <v>381.041215307647</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21240,7 +21315,7 @@
         <v>-0.03530768484714921</v>
       </c>
       <c r="J11" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K11" t="n">
         <v>238</v>
@@ -21318,7 +21393,7 @@
         <v>0.08559651821100568</v>
       </c>
       <c r="J12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K12" t="n">
         <v>168</v>
@@ -21393,28 +21468,28 @@
         <v>0.1031</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03618346488106432</v>
+        <v>-0.03933268851966451</v>
       </c>
       <c r="J13" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K13" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005745854277456885</v>
+        <v>0.0006848934226402204</v>
       </c>
       <c r="M13" t="n">
-        <v>7.806991112246945</v>
+        <v>7.788056293901244</v>
       </c>
       <c r="N13" t="n">
-        <v>106.3068620041617</v>
+        <v>105.9004702730529</v>
       </c>
       <c r="O13" t="n">
-        <v>10.31052190745753</v>
+        <v>10.29079541498386</v>
       </c>
       <c r="P13" t="n">
-        <v>360.4139039273411</v>
+        <v>360.4487702185288</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21471,28 +21546,28 @@
         <v>0.1014</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0960931876896134</v>
+        <v>-0.1003723912772681</v>
       </c>
       <c r="J14" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K14" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003440690570266636</v>
+        <v>0.003785472223247877</v>
       </c>
       <c r="M14" t="n">
-        <v>9.158999538946238</v>
+        <v>9.139133245958126</v>
       </c>
       <c r="N14" t="n">
-        <v>125.9693831642382</v>
+        <v>125.5270628296798</v>
       </c>
       <c r="O14" t="n">
-        <v>11.22360829520695</v>
+        <v>11.20388605929567</v>
       </c>
       <c r="P14" t="n">
-        <v>363.3141656051212</v>
+        <v>363.3609197589639</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21549,28 +21624,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08320676044534336</v>
+        <v>-0.08199659199874183</v>
       </c>
       <c r="J15" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K15" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003436431962563491</v>
+        <v>0.003369776190572993</v>
       </c>
       <c r="M15" t="n">
-        <v>7.609495947684778</v>
+        <v>7.582736365280814</v>
       </c>
       <c r="N15" t="n">
-        <v>94.80213131796552</v>
+        <v>94.40411018728817</v>
       </c>
       <c r="O15" t="n">
-        <v>9.736638604670789</v>
+        <v>9.716177756056554</v>
       </c>
       <c r="P15" t="n">
-        <v>361.5586247466783</v>
+        <v>361.5455003639194</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21627,28 +21702,28 @@
         <v>0.068</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.031673322597576</v>
+        <v>-0.02885072265191842</v>
       </c>
       <c r="J16" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K16" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004660838187606764</v>
+        <v>0.0003901819221067138</v>
       </c>
       <c r="M16" t="n">
-        <v>7.835924357557176</v>
+        <v>7.815292458464476</v>
       </c>
       <c r="N16" t="n">
-        <v>101.1427354558881</v>
+        <v>100.7564673553409</v>
       </c>
       <c r="O16" t="n">
-        <v>10.05697446829254</v>
+        <v>10.03775210668907</v>
       </c>
       <c r="P16" t="n">
-        <v>360.1676387286945</v>
+        <v>360.1366381878676</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21705,28 +21780,28 @@
         <v>0.1165</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03161854111156671</v>
+        <v>-0.03048792317963224</v>
       </c>
       <c r="J17" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K17" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007480892432623065</v>
+        <v>0.0007017680992797981</v>
       </c>
       <c r="M17" t="n">
-        <v>6.009329008960122</v>
+        <v>5.989673718823763</v>
       </c>
       <c r="N17" t="n">
-        <v>64.26108864901758</v>
+        <v>63.9933294955153</v>
       </c>
       <c r="O17" t="n">
-        <v>8.016301432020729</v>
+        <v>7.999583082605949</v>
       </c>
       <c r="P17" t="n">
-        <v>363.299628816313</v>
+        <v>363.2872710748211</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21783,28 +21858,28 @@
         <v>0.1108</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03851839799988346</v>
+        <v>0.0434393105696436</v>
       </c>
       <c r="J18" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K18" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006647130640863308</v>
+        <v>0.0008519077991132606</v>
       </c>
       <c r="M18" t="n">
-        <v>7.756385190331047</v>
+        <v>7.746106052207455</v>
       </c>
       <c r="N18" t="n">
-        <v>107.0375852553382</v>
+        <v>106.7104539266696</v>
       </c>
       <c r="O18" t="n">
-        <v>10.34589702516598</v>
+        <v>10.33007521398899</v>
       </c>
       <c r="P18" t="n">
-        <v>366.5993948375268</v>
+        <v>366.5456917051887</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21861,28 +21936,28 @@
         <v>0.0917</v>
       </c>
       <c r="I19" t="n">
-        <v>5.831778871499049e-05</v>
+        <v>0.005624565996003773</v>
       </c>
       <c r="J19" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K19" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L19" t="n">
-        <v>1.518301373515385e-09</v>
+        <v>1.423103841313722e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>8.056049400785961</v>
+        <v>8.04648056686518</v>
       </c>
       <c r="N19" t="n">
-        <v>106.6148440044781</v>
+        <v>106.3147186094817</v>
       </c>
       <c r="O19" t="n">
-        <v>10.32544643124345</v>
+        <v>10.31090289981831</v>
       </c>
       <c r="P19" t="n">
-        <v>370.9709955283182</v>
+        <v>370.9097920857882</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21939,28 +22014,28 @@
         <v>0.09719999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.09042659803216428</v>
+        <v>-0.08552753029522579</v>
       </c>
       <c r="J20" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K20" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00453504481108058</v>
+        <v>0.004092739072110829</v>
       </c>
       <c r="M20" t="n">
-        <v>7.21734747587412</v>
+        <v>7.209912939764533</v>
       </c>
       <c r="N20" t="n">
-        <v>84.94600056098318</v>
+        <v>84.69037623194463</v>
       </c>
       <c r="O20" t="n">
-        <v>9.216615461273362</v>
+        <v>9.20273743143553</v>
       </c>
       <c r="P20" t="n">
-        <v>379.3503212199642</v>
+        <v>379.2969006809515</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21998,7 +22073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U271"/>
+  <dimension ref="A1:U272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47763,6 +47838,105 @@
         </is>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>-35.67350672338218,174.50830397371365</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>-35.674229394375736,174.50843843155693</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>-35.67494883983623,174.5085223397371</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>-35.67565993429133,174.50867821256367</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>-35.6763837336872,174.5087942161322</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>-35.677097117222125,174.50898595671867</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>-35.67782215025411,174.50909320273234</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>-35.678526096662544,174.5093150057316</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>-35.67917823109653,174.5095027596717</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>-35.68123350835447,174.50995598866663</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>-35.68196156030357,174.5100811989924</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>-35.682672320583755,174.51029436099304</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>-35.68338499859856,174.51048764450775</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>-35.68410311446427,174.51064651799524</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>-35.68480243994328,174.51088931278878</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>-35.6854563968739,174.5111893673813</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>-35.68605589126896,174.51167329858308</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U272"/>
+  <dimension ref="A1:U274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17618,6 +17618,144 @@
         </is>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>378.7484615384615</v>
+      </c>
+      <c r="C273" t="n">
+        <v>376.0484615384616</v>
+      </c>
+      <c r="D273" t="n">
+        <v>380.4166666666667</v>
+      </c>
+      <c r="E273" t="n">
+        <v>378.8533333333334</v>
+      </c>
+      <c r="F273" t="n">
+        <v>371.885</v>
+      </c>
+      <c r="G273" t="n">
+        <v>379.0366666666667</v>
+      </c>
+      <c r="H273" t="n">
+        <v>382.74</v>
+      </c>
+      <c r="I273" t="n">
+        <v>383.295</v>
+      </c>
+      <c r="J273" t="n">
+        <v>385.8933333333334</v>
+      </c>
+      <c r="K273" t="n">
+        <v>398.7533333333333</v>
+      </c>
+      <c r="L273" t="n">
+        <v>371.35</v>
+      </c>
+      <c r="M273" t="n">
+        <v>357.7947058823529</v>
+      </c>
+      <c r="N273" t="n">
+        <v>353.0847058823529</v>
+      </c>
+      <c r="O273" t="n">
+        <v>359.2184615384616</v>
+      </c>
+      <c r="P273" t="n">
+        <v>359.6666666666667</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>361.79</v>
+      </c>
+      <c r="R273" t="n">
+        <v>373.3578947368421</v>
+      </c>
+      <c r="S273" t="n">
+        <v>378.545</v>
+      </c>
+      <c r="T273" t="n">
+        <v>382.9147058823529</v>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>383.5507692307692</v>
+      </c>
+      <c r="C274" t="n">
+        <v>389.7907692307692</v>
+      </c>
+      <c r="D274" t="n">
+        <v>391.9533333333333</v>
+      </c>
+      <c r="E274" t="n">
+        <v>385.4266666666667</v>
+      </c>
+      <c r="F274" t="n">
+        <v>389.835</v>
+      </c>
+      <c r="G274" t="n">
+        <v>386.1233333333333</v>
+      </c>
+      <c r="H274" t="n">
+        <v>390.8142857142857</v>
+      </c>
+      <c r="I274" t="n">
+        <v>384.525</v>
+      </c>
+      <c r="J274" t="n">
+        <v>395.4066666666666</v>
+      </c>
+      <c r="K274" t="n">
+        <v>391.2666666666667</v>
+      </c>
+      <c r="L274" t="n">
+        <v>378.46</v>
+      </c>
+      <c r="M274" t="n">
+        <v>366.4794117647058</v>
+      </c>
+      <c r="N274" t="n">
+        <v>377.1294117647059</v>
+      </c>
+      <c r="O274" t="n">
+        <v>367.4907692307692</v>
+      </c>
+      <c r="P274" t="n">
+        <v>379.4133333333333</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>367.9</v>
+      </c>
+      <c r="R274" t="n">
+        <v>378.3073684210527</v>
+      </c>
+      <c r="S274" t="n">
+        <v>380.515</v>
+      </c>
+      <c r="T274" t="n">
+        <v>383.4894117647058</v>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17629,7 +17767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20437,6 +20575,26 @@
       </c>
       <c r="B280" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -20610,28 +20768,28 @@
         <v>0.0751</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09863937312445345</v>
+        <v>0.09535948672953228</v>
       </c>
       <c r="J2" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K2" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004219139610891487</v>
+        <v>0.004017765062256262</v>
       </c>
       <c r="M2" t="n">
-        <v>8.293969520432817</v>
+        <v>8.242408985047264</v>
       </c>
       <c r="N2" t="n">
-        <v>109.2158429276841</v>
+        <v>108.3545576570222</v>
       </c>
       <c r="O2" t="n">
-        <v>10.45063839809244</v>
+        <v>10.40934953092758</v>
       </c>
       <c r="P2" t="n">
-        <v>380.3893807212586</v>
+        <v>380.4251199283326</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20688,28 +20846,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1090152622022305</v>
+        <v>0.104315235537297</v>
       </c>
       <c r="J3" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K3" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006023742781709363</v>
+        <v>0.005591222982654798</v>
       </c>
       <c r="M3" t="n">
-        <v>7.60515483297793</v>
+        <v>7.596596536686669</v>
       </c>
       <c r="N3" t="n">
-        <v>93.01302356959778</v>
+        <v>92.67959721337364</v>
       </c>
       <c r="O3" t="n">
-        <v>9.644325977983002</v>
+        <v>9.62702431768891</v>
       </c>
       <c r="P3" t="n">
-        <v>382.7465492673762</v>
+        <v>382.7984746943109</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20766,28 +20924,28 @@
         <v>0.0699</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1293957240405555</v>
+        <v>0.128106352697018</v>
       </c>
       <c r="J4" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K4" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01059805458321217</v>
+        <v>0.01054371579623192</v>
       </c>
       <c r="M4" t="n">
-        <v>6.910202957821162</v>
+        <v>6.899191872232595</v>
       </c>
       <c r="N4" t="n">
-        <v>75.62722679118204</v>
+        <v>75.25985917937035</v>
       </c>
       <c r="O4" t="n">
-        <v>8.696391596011649</v>
+        <v>8.675244041487845</v>
       </c>
       <c r="P4" t="n">
-        <v>383.5591158481175</v>
+        <v>383.5730746707396</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20844,28 +21002,28 @@
         <v>0.0881</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0950435019280766</v>
+        <v>0.09361668280230297</v>
       </c>
       <c r="J5" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K5" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004262317943475979</v>
+        <v>0.004209567175602169</v>
       </c>
       <c r="M5" t="n">
-        <v>7.915178903345709</v>
+        <v>7.874122621827364</v>
       </c>
       <c r="N5" t="n">
-        <v>100.382618571697</v>
+        <v>99.61217987270307</v>
       </c>
       <c r="O5" t="n">
-        <v>10.01911266388881</v>
+        <v>9.980590156533985</v>
       </c>
       <c r="P5" t="n">
-        <v>380.4721606380192</v>
+        <v>380.4878040948279</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20922,28 +21080,28 @@
         <v>0.0922</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04647449815123719</v>
+        <v>0.05077302864498621</v>
       </c>
       <c r="J6" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K6" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001009211837864399</v>
+        <v>0.001217985252074061</v>
       </c>
       <c r="M6" t="n">
-        <v>8.041875281860186</v>
+        <v>8.050064213729176</v>
       </c>
       <c r="N6" t="n">
-        <v>104.7203922008288</v>
+        <v>104.5551939399957</v>
       </c>
       <c r="O6" t="n">
-        <v>10.23329820736349</v>
+        <v>10.22522341760784</v>
       </c>
       <c r="P6" t="n">
-        <v>377.2933001805101</v>
+        <v>377.2464520688706</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21000,28 +21158,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06053359910291462</v>
+        <v>0.07435669051968993</v>
       </c>
       <c r="J7" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K7" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001715937646321053</v>
+        <v>0.002620110737606485</v>
       </c>
       <c r="M7" t="n">
-        <v>7.813048076410374</v>
+        <v>7.814962042553794</v>
       </c>
       <c r="N7" t="n">
-        <v>103.3067385282514</v>
+        <v>102.9940517099243</v>
       </c>
       <c r="O7" t="n">
-        <v>10.16399225345294</v>
+        <v>10.14859850964281</v>
       </c>
       <c r="P7" t="n">
-        <v>373.4548295082641</v>
+        <v>373.3034755696392</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21078,28 +21236,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01954356857392812</v>
+        <v>0.04401678484681888</v>
       </c>
       <c r="J8" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K8" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001490099903144193</v>
+        <v>0.0007604995926370206</v>
       </c>
       <c r="M8" t="n">
-        <v>8.767978689094202</v>
+        <v>8.78993753010144</v>
       </c>
       <c r="N8" t="n">
-        <v>120.3471863240222</v>
+        <v>120.8440419069941</v>
       </c>
       <c r="O8" t="n">
-        <v>10.97028651968681</v>
+        <v>10.9929087100273</v>
       </c>
       <c r="P8" t="n">
-        <v>373.4415576271709</v>
+        <v>373.1716811056327</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21156,28 +21314,28 @@
         <v>0.0905</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0853514438056506</v>
+        <v>-0.06424041450162606</v>
       </c>
       <c r="J9" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K9" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003204330706641945</v>
+        <v>0.001833306386582523</v>
       </c>
       <c r="M9" t="n">
-        <v>7.783703005843335</v>
+        <v>7.819964442861831</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1471801446165</v>
+        <v>104.3519443991998</v>
       </c>
       <c r="O9" t="n">
-        <v>10.20525257622841</v>
+        <v>10.21527994717716</v>
       </c>
       <c r="P9" t="n">
-        <v>374.6463409344177</v>
+        <v>374.4108511972372</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21234,28 +21392,28 @@
         <v>0.0843</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03998167143016938</v>
+        <v>-0.02079324070761227</v>
       </c>
       <c r="J10" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K10" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007313414100990068</v>
+        <v>0.0001994311149209338</v>
       </c>
       <c r="M10" t="n">
-        <v>7.708602830597493</v>
+        <v>7.737502652665136</v>
       </c>
       <c r="N10" t="n">
-        <v>101.0163317031496</v>
+        <v>101.2808805859217</v>
       </c>
       <c r="O10" t="n">
-        <v>10.05068812087758</v>
+        <v>10.06384025041742</v>
       </c>
       <c r="P10" t="n">
-        <v>381.041215307647</v>
+        <v>380.8277889018888</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21312,28 +21470,28 @@
         <v>0.0314</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.03530768484714921</v>
+        <v>-0.01594782286749382</v>
       </c>
       <c r="J11" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K11" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000182960672848842</v>
+        <v>3.789309465906943e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>14.47355119066006</v>
+        <v>14.43789030038741</v>
       </c>
       <c r="N11" t="n">
-        <v>319.9905363772021</v>
+        <v>318.4044612260968</v>
       </c>
       <c r="O11" t="n">
-        <v>17.88827930174398</v>
+        <v>17.84389142609024</v>
       </c>
       <c r="P11" t="n">
-        <v>385.0247653040273</v>
+        <v>384.8107272214218</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21390,28 +21548,28 @@
         <v>0.0527</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08559651821100568</v>
+        <v>0.085048323068531</v>
       </c>
       <c r="J12" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K12" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002576611121261174</v>
+        <v>0.002605074696867549</v>
       </c>
       <c r="M12" t="n">
-        <v>9.292947615389561</v>
+        <v>9.225185826291028</v>
       </c>
       <c r="N12" t="n">
-        <v>136.1304206907195</v>
+        <v>134.6780315419109</v>
       </c>
       <c r="O12" t="n">
-        <v>11.66749419073005</v>
+        <v>11.60508645128983</v>
       </c>
       <c r="P12" t="n">
-        <v>372.92436913034</v>
+        <v>372.9302996821568</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21468,28 +21626,28 @@
         <v>0.1031</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03933268851966451</v>
+        <v>-0.03443943684528027</v>
       </c>
       <c r="J13" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K13" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006848934226402204</v>
+        <v>0.0005337926836671558</v>
       </c>
       <c r="M13" t="n">
-        <v>7.788056293901244</v>
+        <v>7.758989713108972</v>
       </c>
       <c r="N13" t="n">
-        <v>105.9004702730529</v>
+        <v>105.2203709943289</v>
       </c>
       <c r="O13" t="n">
-        <v>10.29079541498386</v>
+        <v>10.2576981333206</v>
       </c>
       <c r="P13" t="n">
-        <v>360.4487702185288</v>
+        <v>360.3943162768774</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21546,28 +21704,28 @@
         <v>0.1014</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1003723912772681</v>
+        <v>-0.09252706522794814</v>
       </c>
       <c r="J14" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K14" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003785472223247877</v>
+        <v>0.003243625870567812</v>
       </c>
       <c r="M14" t="n">
-        <v>9.139133245958126</v>
+        <v>9.165004129293655</v>
       </c>
       <c r="N14" t="n">
-        <v>125.5270628296798</v>
+        <v>125.8414427485971</v>
       </c>
       <c r="O14" t="n">
-        <v>11.20388605929567</v>
+        <v>11.21790723569227</v>
       </c>
       <c r="P14" t="n">
-        <v>363.3609197589639</v>
+        <v>363.2746772217136</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21624,28 +21782,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08199659199874183</v>
+        <v>-0.07480067001420725</v>
       </c>
       <c r="J15" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K15" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003369776190572993</v>
+        <v>0.002851948408495009</v>
       </c>
       <c r="M15" t="n">
-        <v>7.582736365280814</v>
+        <v>7.555494077747933</v>
       </c>
       <c r="N15" t="n">
-        <v>94.40411018728817</v>
+        <v>93.87648642096076</v>
       </c>
       <c r="O15" t="n">
-        <v>9.716177756056554</v>
+        <v>9.688987894561576</v>
       </c>
       <c r="P15" t="n">
-        <v>361.5455003639194</v>
+        <v>361.4671084218216</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21702,28 +21860,28 @@
         <v>0.068</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02885072265191842</v>
+        <v>-0.01077198541092531</v>
       </c>
       <c r="J16" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K16" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003901819221067138</v>
+        <v>5.451539720358056e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>7.815292458464476</v>
+        <v>7.828798382031589</v>
       </c>
       <c r="N16" t="n">
-        <v>100.7564673553409</v>
+        <v>101.5684187610921</v>
       </c>
       <c r="O16" t="n">
-        <v>10.03775210668907</v>
+        <v>10.07811583387947</v>
       </c>
       <c r="P16" t="n">
-        <v>360.1366381878676</v>
+        <v>359.9371789258117</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21780,28 +21938,28 @@
         <v>0.1165</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03048792317963224</v>
+        <v>-0.02638909148161328</v>
       </c>
       <c r="J17" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K17" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007017680992797981</v>
+        <v>0.0005342309199879436</v>
       </c>
       <c r="M17" t="n">
-        <v>5.989673718823763</v>
+        <v>5.96685542028655</v>
       </c>
       <c r="N17" t="n">
-        <v>63.9933294955153</v>
+        <v>63.57558217477654</v>
       </c>
       <c r="O17" t="n">
-        <v>7.999583082605949</v>
+        <v>7.973429762327911</v>
       </c>
       <c r="P17" t="n">
-        <v>363.2872710748211</v>
+        <v>363.24224284192</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21858,28 +22016,28 @@
         <v>0.1108</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0434393105696436</v>
+        <v>0.05772449080330251</v>
       </c>
       <c r="J18" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K18" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0008519077991132606</v>
+        <v>0.001521943681165872</v>
       </c>
       <c r="M18" t="n">
-        <v>7.746106052207455</v>
+        <v>7.745600063540405</v>
       </c>
       <c r="N18" t="n">
-        <v>106.7104539266696</v>
+        <v>106.4092636523387</v>
       </c>
       <c r="O18" t="n">
-        <v>10.33007521398899</v>
+        <v>10.31548659309578</v>
       </c>
       <c r="P18" t="n">
-        <v>366.5456917051887</v>
+        <v>366.3891605226798</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21936,28 +22094,28 @@
         <v>0.0917</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005624565996003773</v>
+        <v>0.02070131441713197</v>
       </c>
       <c r="J19" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K19" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L19" t="n">
-        <v>1.423103841313722e-05</v>
+        <v>0.0001951375020246005</v>
       </c>
       <c r="M19" t="n">
-        <v>8.04648056686518</v>
+        <v>8.044927338663854</v>
       </c>
       <c r="N19" t="n">
-        <v>106.3147186094817</v>
+        <v>106.0106931141061</v>
       </c>
       <c r="O19" t="n">
-        <v>10.31090289981831</v>
+        <v>10.29614943141882</v>
       </c>
       <c r="P19" t="n">
-        <v>370.9097920857882</v>
+        <v>370.743371994978</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -22014,28 +22172,28 @@
         <v>0.09719999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.08552753029522579</v>
+        <v>-0.07422174976085309</v>
       </c>
       <c r="J20" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K20" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004092739072110829</v>
+        <v>0.003133264117869738</v>
       </c>
       <c r="M20" t="n">
-        <v>7.209912939764533</v>
+        <v>7.203049528064995</v>
       </c>
       <c r="N20" t="n">
-        <v>84.69037623194463</v>
+        <v>84.27111622709472</v>
       </c>
       <c r="O20" t="n">
-        <v>9.20273743143553</v>
+        <v>9.179930077462176</v>
       </c>
       <c r="P20" t="n">
-        <v>379.2969006809515</v>
+        <v>379.1731671229826</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -22073,7 +22231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U272"/>
+  <dimension ref="A1:U274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47937,6 +48095,220 @@
         </is>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>-35.6735051372147,174.50832482249513</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>-35.67423462027839,174.50836974165287</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>-35.67495215257408,174.50849141383856</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>-35.67566880413668,174.50861476541738</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>-35.67639944338366,174.50868335305088</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>-35.67710836467036,174.50890690453187</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>-35.677822204146146,174.5090928297447</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>-35.67853689027958,174.50924830346145</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>-35.679201244789105,174.5094401353675</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>-35.679710734678096,174.5100729936001</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>-35.680488293087585,174.51012983422885</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>-35.681232329174144,174.5099752173666</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>-35.68196625757879,174.5100477191138</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>-35.68267498190971,174.5102781727633</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>-35.68338972653503,174.5104572178981</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>-35.684106127168846,174.51062506713134</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>-35.68480192801386,174.51089185331944</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>-35.685451144332795,174.51120373590084</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>-35.686052750572166,174.51167994688717</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>-35.67350111834972,174.5083776467371</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>-35.67422311976484,174.50852090511978</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>-35.67493861605956,174.50861778281114</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>-35.6756587976497,174.50868634308932</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>-35.676371756614564,174.5088787376348</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>-35.677097390795375,174.50898403392597</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>-35.677809512538104,174.50918066832526</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>-35.67853473331273,174.50926163307994</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>-35.6791660270397,174.5095359690062</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>-35.67974398464536,174.51000101420428</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>-35.68047630015788,174.51020700104615</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>-35.681226461444744,174.51007090071548</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>-35.68192952386781,174.5103095371594</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>-35.68266025213523,174.5103677703931</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>-35.68335642281103,174.5106715427094</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>-35.68409678318446,174.51069159747</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>-35.68479122981466,174.51094494475618</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>-35.68544388292231,174.51122359974573</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>-35.68605015458141,174.51168544214318</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U274"/>
+  <dimension ref="A1:U276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17756,6 +17756,144 @@
         </is>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>376.3538461538461</v>
+      </c>
+      <c r="C275" t="n">
+        <v>387.0738461538461</v>
+      </c>
+      <c r="D275" t="n">
+        <v>377.08</v>
+      </c>
+      <c r="E275" t="n">
+        <v>376.17</v>
+      </c>
+      <c r="F275" t="n">
+        <v>377.31</v>
+      </c>
+      <c r="G275" t="n">
+        <v>371.04</v>
+      </c>
+      <c r="H275" t="n">
+        <v>379.0057142857143</v>
+      </c>
+      <c r="I275" t="n">
+        <v>375.05</v>
+      </c>
+      <c r="J275" t="n">
+        <v>385.84</v>
+      </c>
+      <c r="K275" t="n">
+        <v>373.07</v>
+      </c>
+      <c r="L275" t="n">
+        <v>364.64</v>
+      </c>
+      <c r="M275" t="n">
+        <v>351.2682352941176</v>
+      </c>
+      <c r="N275" t="n">
+        <v>351.8282352941176</v>
+      </c>
+      <c r="O275" t="n">
+        <v>353.1738461538461</v>
+      </c>
+      <c r="P275" t="n">
+        <v>352.47</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>357.29</v>
+      </c>
+      <c r="R275" t="n">
+        <v>366.2668421052632</v>
+      </c>
+      <c r="S275" t="n">
+        <v>363.47</v>
+      </c>
+      <c r="T275" t="n">
+        <v>374.0782352941176</v>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>373.7446153846154</v>
+      </c>
+      <c r="C276" t="n">
+        <v>375.2946153846154</v>
+      </c>
+      <c r="D276" t="n">
+        <v>380.26</v>
+      </c>
+      <c r="E276" t="n">
+        <v>375.17</v>
+      </c>
+      <c r="F276" t="n">
+        <v>375.295</v>
+      </c>
+      <c r="G276" t="n">
+        <v>373.07</v>
+      </c>
+      <c r="H276" t="n">
+        <v>372.8957142857143</v>
+      </c>
+      <c r="I276" t="n">
+        <v>371.465</v>
+      </c>
+      <c r="J276" t="n">
+        <v>380.85</v>
+      </c>
+      <c r="K276" t="n">
+        <v>375.58</v>
+      </c>
+      <c r="L276" t="n">
+        <v>361.43</v>
+      </c>
+      <c r="M276" t="n">
+        <v>355.5288235294118</v>
+      </c>
+      <c r="N276" t="n">
+        <v>349.8788235294118</v>
+      </c>
+      <c r="O276" t="n">
+        <v>356.8546153846154</v>
+      </c>
+      <c r="P276" t="n">
+        <v>351.63</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>358.88</v>
+      </c>
+      <c r="R276" t="n">
+        <v>360.5473684210527</v>
+      </c>
+      <c r="S276" t="n">
+        <v>369.765</v>
+      </c>
+      <c r="T276" t="n">
+        <v>373.3488235294118</v>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17767,7 +17905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20595,6 +20733,26 @@
       </c>
       <c r="B282" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -20768,28 +20926,28 @@
         <v>0.0751</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09535948672953228</v>
+        <v>0.08122719678764063</v>
       </c>
       <c r="J2" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K2" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004017765062256262</v>
+        <v>0.002959235347724687</v>
       </c>
       <c r="M2" t="n">
-        <v>8.242408985047264</v>
+        <v>8.233166611681742</v>
       </c>
       <c r="N2" t="n">
-        <v>108.3545576570222</v>
+        <v>107.9571684205934</v>
       </c>
       <c r="O2" t="n">
-        <v>10.40934953092758</v>
+        <v>10.39024390573164</v>
       </c>
       <c r="P2" t="n">
-        <v>380.4251199283326</v>
+        <v>380.5798018007785</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20846,28 +21004,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.104315235537297</v>
+        <v>0.09673103543757533</v>
       </c>
       <c r="J3" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K3" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005591222982654798</v>
+        <v>0.004874015606493809</v>
       </c>
       <c r="M3" t="n">
-        <v>7.596596536686669</v>
+        <v>7.578982955887356</v>
       </c>
       <c r="N3" t="n">
-        <v>92.67959721337364</v>
+        <v>92.34233118252352</v>
       </c>
       <c r="O3" t="n">
-        <v>9.62702431768891</v>
+        <v>9.609491723422396</v>
       </c>
       <c r="P3" t="n">
-        <v>382.7984746943109</v>
+        <v>382.882802212578</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20924,28 +21082,28 @@
         <v>0.0699</v>
       </c>
       <c r="I4" t="n">
-        <v>0.128106352697018</v>
+        <v>0.1134338060614043</v>
       </c>
       <c r="J4" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K4" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01054371579623192</v>
+        <v>0.008371924996639635</v>
       </c>
       <c r="M4" t="n">
-        <v>6.899191872232595</v>
+        <v>6.899820611181793</v>
       </c>
       <c r="N4" t="n">
-        <v>75.25985917937035</v>
+        <v>75.20013286261542</v>
       </c>
       <c r="O4" t="n">
-        <v>8.675244041487845</v>
+        <v>8.671801016087455</v>
       </c>
       <c r="P4" t="n">
-        <v>383.5730746707396</v>
+        <v>383.733680691022</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21002,28 +21160,28 @@
         <v>0.0881</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09361668280230297</v>
+        <v>0.08067368914914581</v>
       </c>
       <c r="J5" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K5" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004209567175602169</v>
+        <v>0.003173088732295049</v>
       </c>
       <c r="M5" t="n">
-        <v>7.874122621827364</v>
+        <v>7.85847266345985</v>
       </c>
       <c r="N5" t="n">
-        <v>99.61217987270307</v>
+        <v>99.19805265529911</v>
       </c>
       <c r="O5" t="n">
-        <v>9.980590156533985</v>
+        <v>9.959821918854729</v>
       </c>
       <c r="P5" t="n">
-        <v>380.4878040948279</v>
+        <v>380.6307364740916</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21080,28 +21238,28 @@
         <v>0.0922</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05077302864498621</v>
+        <v>0.04677234569018493</v>
       </c>
       <c r="J6" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K6" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001217985252074061</v>
+        <v>0.001052231412380866</v>
       </c>
       <c r="M6" t="n">
-        <v>8.050064213729176</v>
+        <v>7.999002548699886</v>
       </c>
       <c r="N6" t="n">
-        <v>104.5551939399957</v>
+        <v>103.6943892124094</v>
       </c>
       <c r="O6" t="n">
-        <v>10.22522341760784</v>
+        <v>10.1830442016329</v>
       </c>
       <c r="P6" t="n">
-        <v>377.2464520688706</v>
+        <v>377.2900512915956</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21158,28 +21316,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07435669051968993</v>
+        <v>0.06866656253138011</v>
       </c>
       <c r="J7" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K7" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002620110737606485</v>
+        <v>0.002274416360989573</v>
       </c>
       <c r="M7" t="n">
-        <v>7.814962042553794</v>
+        <v>7.771650453852499</v>
       </c>
       <c r="N7" t="n">
-        <v>102.9940517099243</v>
+        <v>102.182254408644</v>
       </c>
       <c r="O7" t="n">
-        <v>10.14859850964281</v>
+        <v>10.10852384914059</v>
       </c>
       <c r="P7" t="n">
-        <v>373.3034755696392</v>
+        <v>373.3659502918638</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21236,28 +21394,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04401678484681888</v>
+        <v>0.04706733746534067</v>
       </c>
       <c r="J8" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K8" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007604995926370206</v>
+        <v>0.0008856530227817627</v>
       </c>
       <c r="M8" t="n">
-        <v>8.78993753010144</v>
+        <v>8.737877476941593</v>
       </c>
       <c r="N8" t="n">
-        <v>120.8440419069941</v>
+        <v>119.8845497358969</v>
       </c>
       <c r="O8" t="n">
-        <v>10.9929087100273</v>
+        <v>10.94918032255826</v>
       </c>
       <c r="P8" t="n">
-        <v>373.1716811056327</v>
+        <v>373.1379736705168</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21314,28 +21472,28 @@
         <v>0.0905</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06424041450162606</v>
+        <v>-0.06331759578419151</v>
       </c>
       <c r="J9" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K9" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001833306386582523</v>
+        <v>0.001813950610238813</v>
       </c>
       <c r="M9" t="n">
-        <v>7.819964442861831</v>
+        <v>7.769783490867821</v>
       </c>
       <c r="N9" t="n">
-        <v>104.3519443991998</v>
+        <v>103.5077191404608</v>
       </c>
       <c r="O9" t="n">
-        <v>10.21527994717716</v>
+        <v>10.17387434267108</v>
       </c>
       <c r="P9" t="n">
-        <v>374.4108511972372</v>
+        <v>374.4005422452535</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21392,28 +21550,28 @@
         <v>0.0843</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02079324070761227</v>
+        <v>-0.01539579878122911</v>
       </c>
       <c r="J10" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K10" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001994311149209338</v>
+        <v>0.0001112144220961619</v>
       </c>
       <c r="M10" t="n">
-        <v>7.737502652665136</v>
+        <v>7.700570268807167</v>
       </c>
       <c r="N10" t="n">
-        <v>101.2808805859217</v>
+        <v>100.573409662254</v>
       </c>
       <c r="O10" t="n">
-        <v>10.06384025041742</v>
+        <v>10.02862950069719</v>
       </c>
       <c r="P10" t="n">
-        <v>380.8277889018888</v>
+        <v>380.7676145932293</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21470,28 +21628,28 @@
         <v>0.0314</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01594782286749382</v>
+        <v>-0.03351855531537885</v>
       </c>
       <c r="J11" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K11" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L11" t="n">
-        <v>3.789309465906943e-05</v>
+        <v>0.0001699522861678959</v>
       </c>
       <c r="M11" t="n">
-        <v>14.43789030038741</v>
+        <v>14.40484550060977</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4044612260968</v>
+        <v>316.6027088667036</v>
       </c>
       <c r="O11" t="n">
-        <v>17.84389142609024</v>
+        <v>17.79333327026455</v>
       </c>
       <c r="P11" t="n">
-        <v>384.8107272214218</v>
+        <v>385.0056543638353</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21548,28 +21706,28 @@
         <v>0.0527</v>
       </c>
       <c r="I12" t="n">
-        <v>0.085048323068531</v>
+        <v>0.05647689955462846</v>
       </c>
       <c r="J12" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K12" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002605074696867549</v>
+        <v>0.001163933138947693</v>
       </c>
       <c r="M12" t="n">
-        <v>9.225185826291028</v>
+        <v>9.243271384747709</v>
       </c>
       <c r="N12" t="n">
-        <v>134.6780315419109</v>
+        <v>134.7849410011709</v>
       </c>
       <c r="O12" t="n">
-        <v>11.60508645128983</v>
+        <v>11.60969168415643</v>
       </c>
       <c r="P12" t="n">
-        <v>372.9302996821568</v>
+        <v>373.2452182376343</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21626,28 +21784,28 @@
         <v>0.1031</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03443943684528027</v>
+        <v>-0.04522677588082163</v>
       </c>
       <c r="J13" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K13" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005337926836671558</v>
+        <v>0.0009338594338703654</v>
       </c>
       <c r="M13" t="n">
-        <v>7.758989713108972</v>
+        <v>7.743549907065752</v>
       </c>
       <c r="N13" t="n">
-        <v>105.2203709943289</v>
+        <v>104.6767720298163</v>
       </c>
       <c r="O13" t="n">
-        <v>10.2576981333206</v>
+        <v>10.23116669934648</v>
       </c>
       <c r="P13" t="n">
-        <v>360.3943162768774</v>
+        <v>360.5145505883186</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21704,28 +21862,28 @@
         <v>0.1014</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.09252706522794814</v>
+        <v>-0.1101834031794483</v>
       </c>
       <c r="J14" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K14" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003243625870567812</v>
+        <v>0.004647432377202554</v>
       </c>
       <c r="M14" t="n">
-        <v>9.165004129293655</v>
+        <v>9.166304040309388</v>
       </c>
       <c r="N14" t="n">
-        <v>125.8414427485971</v>
+        <v>125.6154071985458</v>
       </c>
       <c r="O14" t="n">
-        <v>11.21790723569227</v>
+        <v>11.20782794293996</v>
       </c>
       <c r="P14" t="n">
-        <v>363.2746772217136</v>
+        <v>363.4689071543777</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21782,28 +21940,28 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07480067001420725</v>
+        <v>-0.08287817075669258</v>
       </c>
       <c r="J15" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K15" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002851948408495009</v>
+        <v>0.003557762252049512</v>
       </c>
       <c r="M15" t="n">
-        <v>7.555494077747933</v>
+        <v>7.526824113975028</v>
       </c>
       <c r="N15" t="n">
-        <v>93.87648642096076</v>
+        <v>93.28259097232925</v>
       </c>
       <c r="O15" t="n">
-        <v>9.688987894561576</v>
+        <v>9.658291307075451</v>
       </c>
       <c r="P15" t="n">
-        <v>361.4671084218216</v>
+        <v>361.5552801167632</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21860,28 +22018,28 @@
         <v>0.068</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01077198541092531</v>
+        <v>-0.02404381983333658</v>
       </c>
       <c r="J16" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K16" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" t="n">
-        <v>5.451539720358056e-05</v>
+        <v>0.0002751864618421029</v>
       </c>
       <c r="M16" t="n">
-        <v>7.828798382031589</v>
+        <v>7.829489582187994</v>
       </c>
       <c r="N16" t="n">
-        <v>101.5684187610921</v>
+        <v>101.1948266959257</v>
       </c>
       <c r="O16" t="n">
-        <v>10.07811583387947</v>
+        <v>10.0595639416391</v>
       </c>
       <c r="P16" t="n">
-        <v>359.9371789258117</v>
+        <v>360.0839462393029</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21938,28 +22096,28 @@
         <v>0.1165</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02638909148161328</v>
+        <v>-0.03403758068862365</v>
       </c>
       <c r="J17" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K17" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005342309199879436</v>
+        <v>0.0009016699813558793</v>
       </c>
       <c r="M17" t="n">
-        <v>5.96685542028655</v>
+        <v>5.949620987081086</v>
       </c>
       <c r="N17" t="n">
-        <v>63.57558217477654</v>
+        <v>63.2104581680404</v>
       </c>
       <c r="O17" t="n">
-        <v>7.973429762327911</v>
+        <v>7.950500497958628</v>
       </c>
       <c r="P17" t="n">
-        <v>363.24224284192</v>
+        <v>363.3264356977966</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -22016,28 +22174,28 @@
         <v>0.1108</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05772449080330251</v>
+        <v>0.05002833623937553</v>
       </c>
       <c r="J18" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K18" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001521943681165872</v>
+        <v>0.001161337355321423</v>
       </c>
       <c r="M18" t="n">
-        <v>7.745600063540405</v>
+        <v>7.719424095803419</v>
       </c>
       <c r="N18" t="n">
-        <v>106.4092636523387</v>
+        <v>105.7508877794084</v>
       </c>
       <c r="O18" t="n">
-        <v>10.31548659309578</v>
+        <v>10.28352506582292</v>
       </c>
       <c r="P18" t="n">
-        <v>366.3891605226798</v>
+        <v>366.473773543645</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -22094,28 +22252,28 @@
         <v>0.0917</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02070131441713197</v>
+        <v>0.01256732470019571</v>
       </c>
       <c r="J19" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K19" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001951375020246005</v>
+        <v>7.303021197124782e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>8.044927338663854</v>
+        <v>8.017838332261801</v>
       </c>
       <c r="N19" t="n">
-        <v>106.0106931141061</v>
+        <v>105.3730235547245</v>
       </c>
       <c r="O19" t="n">
-        <v>10.29614943141882</v>
+        <v>10.26513631447359</v>
       </c>
       <c r="P19" t="n">
-        <v>370.743371994978</v>
+        <v>370.8334157507707</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -22172,28 +22330,28 @@
         <v>0.09719999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.07422174976085309</v>
+        <v>-0.08062369704975003</v>
       </c>
       <c r="J20" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K20" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003133264117869738</v>
+        <v>0.00376020224325524</v>
       </c>
       <c r="M20" t="n">
-        <v>7.203049528064995</v>
+        <v>7.169118511494873</v>
       </c>
       <c r="N20" t="n">
-        <v>84.27111622709472</v>
+        <v>83.65053116645926</v>
       </c>
       <c r="O20" t="n">
-        <v>9.179930077462176</v>
+        <v>9.146066431338625</v>
       </c>
       <c r="P20" t="n">
-        <v>379.1731671229826</v>
+        <v>379.2434564359783</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -22231,7 +22389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U274"/>
+  <dimension ref="A1:U276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48309,6 +48467,220 @@
         </is>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>-35.67350714116677,174.50829848229338</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>-35.67422539348896,174.50849101934904</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>-35.674956067617714,174.50845486504565</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>-35.67567288892275,174.50858554633172</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>-35.676391075688514,174.50874240383888</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>-35.677120747643606,174.50881987091242</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>-35.677828073881116,174.50905220516808</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>-35.678551348934356,174.50915895164937</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>-35.67920144222548,174.5094395981079</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>-35.67982479995262,174.5098260649206</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>-35.68049961126466,174.51005700870056</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>-35.6812367386649,174.50990331226504</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>-35.68196817710548,174.51003403764696</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>-35.68268574498573,174.510212703318</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>-35.68340186397326,174.5103791072381</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>-35.68411300896711,174.5105760676895</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>-35.6848172551576,174.51081578981743</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>-35.685506710603974,174.5110517319908</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>-35.6860926655602,174.5115954537649</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>-35.673509324714836,174.5082697813715</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>-35.67423525114352,174.50836144944893</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>-35.674952336397546,174.50848969776146</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>-35.67567441120147,174.50857465723067</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>-35.67639418369291,174.50872047069063</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>-35.67711760416026,174.50884196490196</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>-35.67783767785204,174.5089857356384</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>-35.67855763566675,174.50912010066875</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>-35.67921991485521,174.50938933074397</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>-35.67981365251788,174.5098501969827</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>-35.68050502575723,174.5100221696546</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>-35.68123386008106,174.50995025310885</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>-35.68197115524449,174.5100128108754</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>-35.6826791909916,174.51025256986335</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>-35.68340328066032,174.5103699901052</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>-35.68411057740065,174.5105933808267</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>-35.6848296176311,174.51075443879105</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>-35.685483507331426,174.51111520562333</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>-35.68609596036427,174.51158847922562</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -20917,13 +20917,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0601</v>
+        <v>0.0629</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0751</v>
+        <v>0.0833</v>
       </c>
       <c r="I2" t="n">
         <v>0.08126335791277117</v>
@@ -20995,13 +20995,13 @@
         <v>0.05587295339164624</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0574</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.1146</v>
       </c>
       <c r="I3" t="n">
         <v>0.09675786893093045</v>
@@ -21073,13 +21073,13 @@
         <v>0.1117459067832925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0521</v>
+        <v>0.0699</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0699</v>
+        <v>0.1409</v>
       </c>
       <c r="I4" t="n">
         <v>0.1133511775831203</v>
@@ -21151,13 +21151,13 @@
         <v>0.1676131660725316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0648</v>
+        <v>0.0614</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0881</v>
+        <v>0.08</v>
       </c>
       <c r="I5" t="n">
         <v>0.08076894380563783</v>
@@ -21232,10 +21232,10 @@
         <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0737</v>
+        <v>0.0682</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0922</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0.04678962639754122</v>
@@ -21307,13 +21307,13 @@
         <v>0.279359055072621</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0538</v>
+        <v>0.0667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.0911</v>
       </c>
       <c r="I7" t="n">
         <v>0.06858522003685572</v>
@@ -21388,10 +21388,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0635</v>
+        <v>0.0603</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.0776</v>
       </c>
       <c r="I8" t="n">
         <v>0.04704919732465121</v>
@@ -21463,13 +21463,13 @@
         <v>0.3910996958180308</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0693</v>
+        <v>0.079</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0905</v>
+        <v>0.1243</v>
       </c>
       <c r="I9" t="n">
         <v>-0.06337596474307382</v>
@@ -21541,13 +21541,13 @@
         <v>0.4469726492099894</v>
       </c>
       <c r="F10" t="n">
-        <v>0.075</v>
+        <v>0.12</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.0921</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0843</v>
+        <v>0.1815</v>
       </c>
       <c r="I10" t="n">
         <v>-0.01530859181496852</v>
@@ -21619,13 +21619,13 @@
         <v>0.5021611970749256</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0278</v>
+        <v>0.0345</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0314</v>
+        <v>0.0559</v>
       </c>
       <c r="I11" t="n">
         <v>-0.03344220492194609</v>
@@ -21697,13 +21697,13 @@
         <v>0.5541756709272496</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0441</v>
+        <v>0.0447</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0527</v>
+        <v>0.0639</v>
       </c>
       <c r="I12" t="n">
         <v>0.05647689955462829</v>
@@ -21775,13 +21775,13 @@
         <v>0.6097622654134526</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0694</v>
+        <v>0.0912</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1031</v>
+        <v>0.1553</v>
       </c>
       <c r="I13" t="n">
         <v>-0.04523181907664508</v>
@@ -21856,10 +21856,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1014</v>
+        <v>0.1051</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1101855040157315</v>
@@ -21931,13 +21931,13 @@
         <v>0.7214930226999607</v>
       </c>
       <c r="F15" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0592</v>
+        <v>0.0631</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0873</v>
       </c>
       <c r="I15" t="n">
         <v>-0.08284170560497267</v>
@@ -22009,13 +22009,13 @@
         <v>0.7773659760915519</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0566</v>
+        <v>0.0838</v>
       </c>
       <c r="H16" t="n">
-        <v>0.068</v>
+        <v>0.1236</v>
       </c>
       <c r="I16" t="n">
         <v>-0.02410656115009632</v>
@@ -22087,13 +22087,13 @@
         <v>0.8332368835531514</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0867</v>
+        <v>0.0917</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1165</v>
+        <v>0.1416</v>
       </c>
       <c r="I17" t="n">
         <v>-0.03403758068862341</v>
@@ -22165,13 +22165,13 @@
         <v>0.8891098369449436</v>
       </c>
       <c r="F18" t="n">
-        <v>0.095</v>
+        <v>0.09</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0834</v>
+        <v>0.0772</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1108</v>
+        <v>0.1107</v>
       </c>
       <c r="I18" t="n">
         <v>0.05005278108693848</v>
@@ -22246,10 +22246,10 @@
         <v>0.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0917</v>
+        <v>0.0936</v>
       </c>
       <c r="I19" t="n">
         <v>0.01252488087306575</v>
@@ -22321,13 +22321,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0738</v>
+        <v>0.0839</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09719999999999999</v>
+        <v>0.1153</v>
       </c>
       <c r="I20" t="n">
         <v>-0.08064074137091981</v>

--- a/data/nzd0095/nzd0095.xlsx
+++ b/data/nzd0095/nzd0095.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U277"/>
+  <dimension ref="A1:U278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19570,6 +19570,75 @@
       <c r="U277" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>376.22</v>
+      </c>
+      <c r="C278" t="n">
+        <v>380.52</v>
+      </c>
+      <c r="D278" t="n">
+        <v>382.52</v>
+      </c>
+      <c r="E278" t="n">
+        <v>380.89</v>
+      </c>
+      <c r="F278" t="n">
+        <v>381.04</v>
+      </c>
+      <c r="G278" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="H278" t="n">
+        <v>381.99</v>
+      </c>
+      <c r="I278" t="n">
+        <v>382.02</v>
+      </c>
+      <c r="J278" t="n">
+        <v>389.07</v>
+      </c>
+      <c r="K278" t="n">
+        <v>384.83</v>
+      </c>
+      <c r="L278" t="n">
+        <v>373.22</v>
+      </c>
+      <c r="M278" t="n">
+        <v>357.46</v>
+      </c>
+      <c r="N278" t="n">
+        <v>355.71</v>
+      </c>
+      <c r="O278" t="n">
+        <v>359.6</v>
+      </c>
+      <c r="P278" t="n">
+        <v>360.71</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>362.56</v>
+      </c>
+      <c r="R278" t="n">
+        <v>371.64</v>
+      </c>
+      <c r="S278" t="n">
+        <v>375.55</v>
+      </c>
+      <c r="T278" t="n">
+        <v>380.31</v>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19584,7 +19653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22442,6 +22511,16 @@
       </c>
       <c r="B285" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -22609,34 +22688,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0832</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01444230701502861</v>
+        <v>0.009942357103580783</v>
       </c>
       <c r="J2" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000247367546976518</v>
+        <v>0.0001178682632685391</v>
       </c>
       <c r="M2" t="n">
-        <v>4.889978079667387</v>
+        <v>4.894249122820702</v>
       </c>
       <c r="N2" t="n">
-        <v>39.74751490562073</v>
+        <v>39.7203536743065</v>
       </c>
       <c r="O2" t="n">
-        <v>6.304563022575056</v>
+        <v>6.302408561360212</v>
       </c>
       <c r="P2" t="n">
-        <v>381.5491333090831</v>
+        <v>381.5999680959798</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22687,34 +22766,34 @@
         <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0625</v>
+        <v>0.0624</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1144</v>
+        <v>0.1134</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01591318690574976</v>
+        <v>0.01298007688021539</v>
       </c>
       <c r="J3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003759565357190908</v>
+        <v>0.0002518371975377409</v>
       </c>
       <c r="M3" t="n">
-        <v>4.365526922813906</v>
+        <v>4.360666421618425</v>
       </c>
       <c r="N3" t="n">
-        <v>31.7468311950501</v>
+        <v>31.68164582909199</v>
       </c>
       <c r="O3" t="n">
-        <v>5.634432641806103</v>
+        <v>5.628645114864854</v>
       </c>
       <c r="P3" t="n">
-        <v>383.8210560534972</v>
+        <v>383.8541906496653</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22765,34 +22844,34 @@
         <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0699</v>
+        <v>0.0697</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1408</v>
+        <v>0.1396</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01941628728016609</v>
+        <v>0.01719213363599827</v>
       </c>
       <c r="J4" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K4" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006928142480578936</v>
+        <v>0.0005471300767336817</v>
       </c>
       <c r="M4" t="n">
-        <v>3.71467094489752</v>
+        <v>3.712862399388736</v>
       </c>
       <c r="N4" t="n">
-        <v>25.63902931461716</v>
+        <v>25.57488884670736</v>
       </c>
       <c r="O4" t="n">
-        <v>5.063499710142893</v>
+        <v>5.057162133717621</v>
       </c>
       <c r="P4" t="n">
-        <v>384.8295724658587</v>
+        <v>384.8546981625335</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22843,34 +22922,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0613</v>
+        <v>0.0612</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0799</v>
+        <v>0.0798</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06991285293972122</v>
+        <v>0.06855319248765504</v>
       </c>
       <c r="J5" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K5" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007405596542850557</v>
+        <v>0.007178226510975994</v>
       </c>
       <c r="M5" t="n">
-        <v>4.118818454774299</v>
+        <v>4.11134166206338</v>
       </c>
       <c r="N5" t="n">
-        <v>30.88963842132334</v>
+        <v>30.78874394004883</v>
       </c>
       <c r="O5" t="n">
-        <v>5.557844764054079</v>
+        <v>5.548760576926061</v>
       </c>
       <c r="P5" t="n">
-        <v>380.7824095288837</v>
+        <v>380.7977692663682</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22921,34 +23000,34 @@
         <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0683</v>
+        <v>0.068</v>
       </c>
       <c r="H6" t="n">
-        <v>0.094</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03493950498390227</v>
+        <v>-0.03184585279246864</v>
       </c>
       <c r="J6" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001732585345437743</v>
+        <v>0.001449219959598125</v>
       </c>
       <c r="M6" t="n">
-        <v>4.38886108938873</v>
+        <v>4.384400620461928</v>
       </c>
       <c r="N6" t="n">
-        <v>33.164446592887</v>
+        <v>33.09970195512678</v>
       </c>
       <c r="O6" t="n">
-        <v>5.758858097998856</v>
+        <v>5.753234043138414</v>
       </c>
       <c r="P6" t="n">
-        <v>378.0340471555951</v>
+        <v>377.9990989555088</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22999,34 +23078,34 @@
         <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0667</v>
+        <v>0.0665</v>
       </c>
       <c r="H7" t="n">
-        <v>0.091</v>
+        <v>0.0907</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01725757511915527</v>
+        <v>0.02220201263238213</v>
       </c>
       <c r="J7" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002799808149689387</v>
+        <v>0.0004658216425831307</v>
       </c>
       <c r="M7" t="n">
-        <v>4.975235710975065</v>
+        <v>4.978971646195765</v>
       </c>
       <c r="N7" t="n">
-        <v>50.14142374071648</v>
+        <v>50.10085595704645</v>
       </c>
       <c r="O7" t="n">
-        <v>7.081060919150215</v>
+        <v>7.078195812284826</v>
       </c>
       <c r="P7" t="n">
-        <v>373.3744809889829</v>
+        <v>373.3186249389702</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23077,34 +23156,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0604</v>
+        <v>0.06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0774</v>
+        <v>0.0772</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1206459975462781</v>
+        <v>-0.1123175963691664</v>
       </c>
       <c r="J8" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K8" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01148745072284274</v>
+        <v>0.00998591166433449</v>
       </c>
       <c r="M8" t="n">
-        <v>6.006003482535288</v>
+        <v>6.017884772008318</v>
       </c>
       <c r="N8" t="n">
-        <v>59.05699758396936</v>
+        <v>59.24227459666005</v>
       </c>
       <c r="O8" t="n">
-        <v>7.684855078917843</v>
+        <v>7.696900323939505</v>
       </c>
       <c r="P8" t="n">
-        <v>374.5808600153966</v>
+        <v>374.4867761906075</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23155,34 +23234,34 @@
         <v>0.095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.079</v>
+        <v>0.0788</v>
       </c>
       <c r="H9" t="n">
-        <v>0.124</v>
+        <v>0.1236</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.182575035775144</v>
+        <v>-0.1739691026889781</v>
       </c>
       <c r="J9" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K9" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03460610214576787</v>
+        <v>0.03147581350001483</v>
       </c>
       <c r="M9" t="n">
-        <v>5.253547099118683</v>
+        <v>5.278040461691603</v>
       </c>
       <c r="N9" t="n">
-        <v>43.84515944761198</v>
+        <v>44.112352820917</v>
       </c>
       <c r="O9" t="n">
-        <v>6.621567748472561</v>
+        <v>6.641713093842356</v>
       </c>
       <c r="P9" t="n">
-        <v>375.8885662838915</v>
+        <v>375.791347251882</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23233,34 +23312,34 @@
         <v>0.12</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0922</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1812</v>
+        <v>0.1802</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1541676433990303</v>
+        <v>-0.145812057136369</v>
       </c>
       <c r="J10" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K10" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02741185210011976</v>
+        <v>0.02454751260969901</v>
       </c>
       <c r="M10" t="n">
-        <v>5.0791725565688</v>
+        <v>5.09692988088299</v>
       </c>
       <c r="N10" t="n">
-        <v>39.76161918667162</v>
+        <v>40.01916023610566</v>
       </c>
       <c r="O10" t="n">
-        <v>6.305681500573243</v>
+        <v>6.326069888651695</v>
       </c>
       <c r="P10" t="n">
-        <v>382.5089721909857</v>
+        <v>382.414581263216</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23314,31 +23393,31 @@
         <v>0.0345</v>
       </c>
       <c r="H11" t="n">
-        <v>0.056</v>
+        <v>0.0559</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08360096477608656</v>
+        <v>-0.08023183667957784</v>
       </c>
       <c r="J11" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K11" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003481739170002052</v>
+        <v>0.003231773790027925</v>
       </c>
       <c r="M11" t="n">
-        <v>7.806564308119778</v>
+        <v>7.796619119876471</v>
       </c>
       <c r="N11" t="n">
-        <v>94.31887404125614</v>
+        <v>94.04358317098423</v>
       </c>
       <c r="O11" t="n">
-        <v>9.711790465267264</v>
+        <v>9.697607084790775</v>
       </c>
       <c r="P11" t="n">
-        <v>382.7481842378305</v>
+        <v>382.7101240566765</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -23399,28 +23478,28 @@
         <v>0.0639</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05340429573085038</v>
+        <v>0.05288699980556981</v>
       </c>
       <c r="J12" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K12" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003389192784864381</v>
+        <v>0.003351370874753457</v>
       </c>
       <c r="M12" t="n">
-        <v>4.986529419137799</v>
+        <v>4.97066734322037</v>
       </c>
       <c r="N12" t="n">
-        <v>39.88252846130653</v>
+        <v>39.73798258220373</v>
       </c>
       <c r="O12" t="n">
-        <v>6.315261551298294</v>
+        <v>6.303806991192205</v>
       </c>
       <c r="P12" t="n">
-        <v>372.4696435710918</v>
+        <v>372.4754698174367</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -23475,34 +23554,34 @@
         <v>0.115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0912</v>
+        <v>0.0911</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1552</v>
+        <v>0.1547</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1375438877126182</v>
+        <v>-0.1383106199048184</v>
       </c>
       <c r="J13" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K13" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03217957230717683</v>
+        <v>0.03278274815786653</v>
       </c>
       <c r="M13" t="n">
-        <v>3.971465963861184</v>
+        <v>3.960420698531086</v>
       </c>
       <c r="N13" t="n">
-        <v>26.81453540912681</v>
+        <v>26.72005128110096</v>
       </c>
       <c r="O13" t="n">
-        <v>5.178275331529487</v>
+        <v>5.169144153639069</v>
       </c>
       <c r="P13" t="n">
-        <v>362.0327799941075</v>
+        <v>362.0414709572965</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23553,34 +23632,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0716</v>
+        <v>0.0717</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1052</v>
+        <v>0.1045</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1569143641056716</v>
+        <v>-0.1602102409913019</v>
       </c>
       <c r="J14" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K14" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02838210760765103</v>
+        <v>0.02974224120684765</v>
       </c>
       <c r="M14" t="n">
-        <v>4.985789749447719</v>
+        <v>4.984718023461312</v>
       </c>
       <c r="N14" t="n">
-        <v>39.74323958021238</v>
+        <v>39.66216788858691</v>
       </c>
       <c r="O14" t="n">
-        <v>6.304223947498405</v>
+        <v>6.297790714892558</v>
       </c>
       <c r="P14" t="n">
-        <v>364.0025281509708</v>
+        <v>364.0397608318708</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23631,34 +23710,34 @@
         <v>0.075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0631</v>
+        <v>0.0629</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0873</v>
+        <v>0.0871</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1334687876419521</v>
+        <v>-0.1328298663903635</v>
       </c>
       <c r="J15" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K15" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02552653802514238</v>
+        <v>0.02549026788392061</v>
       </c>
       <c r="M15" t="n">
-        <v>4.390716066299538</v>
+        <v>4.3771892363423</v>
       </c>
       <c r="N15" t="n">
-        <v>32.06450426214199</v>
+        <v>31.95109311358048</v>
       </c>
       <c r="O15" t="n">
-        <v>5.662552804357942</v>
+        <v>5.65252979767294</v>
       </c>
       <c r="P15" t="n">
-        <v>362.2884707788363</v>
+        <v>362.2812530483488</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23709,34 +23788,34 @@
         <v>0.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0839</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1237</v>
+        <v>0.1227</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.08878578473655896</v>
+        <v>-0.08687187008030073</v>
       </c>
       <c r="J16" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K16" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01355707294479325</v>
+        <v>0.01308198481320433</v>
       </c>
       <c r="M16" t="n">
-        <v>4.058387265957228</v>
+        <v>4.050410396623361</v>
       </c>
       <c r="N16" t="n">
-        <v>27.04455915039924</v>
+        <v>26.96796932377926</v>
       </c>
       <c r="O16" t="n">
-        <v>5.200438361369092</v>
+        <v>5.193069354801577</v>
       </c>
       <c r="P16" t="n">
-        <v>360.6115656422143</v>
+        <v>360.5899446362911</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23787,34 +23866,34 @@
         <v>0.11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09180000000000001</v>
+        <v>0.0916</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1417</v>
+        <v>0.1412</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07659872500183582</v>
+        <v>-0.07585248791768323</v>
       </c>
       <c r="J17" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K17" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01245141243618431</v>
+        <v>0.01231061415767853</v>
       </c>
       <c r="M17" t="n">
-        <v>3.374914546169382</v>
+        <v>3.36548205730849</v>
       </c>
       <c r="N17" t="n">
-        <v>21.941682978419</v>
+        <v>21.86567028683742</v>
       </c>
       <c r="O17" t="n">
-        <v>4.684195019255603</v>
+        <v>4.676074238807317</v>
       </c>
       <c r="P17" t="n">
-        <v>363.6250408771568</v>
+        <v>363.6166108270688</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23865,34 +23944,34 @@
         <v>0.09</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.077</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1106</v>
+        <v>0.1102</v>
       </c>
       <c r="I18" t="n">
-        <v>0.009514131694540174</v>
+        <v>0.01338316025893982</v>
       </c>
       <c r="J18" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K18" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001110829993075102</v>
+        <v>0.0002210906683248748</v>
       </c>
       <c r="M18" t="n">
-        <v>4.327007696151068</v>
+        <v>4.327052814613216</v>
       </c>
       <c r="N18" t="n">
-        <v>38.41753320543446</v>
+        <v>38.3648393282969</v>
       </c>
       <c r="O18" t="n">
-        <v>6.19818789691265</v>
+        <v>6.193935689712713</v>
       </c>
       <c r="P18" t="n">
-        <v>366.4796517526987</v>
+        <v>366.4359443234075</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23943,34 +24022,34 @@
         <v>0.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.0694</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0935</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.03967357754676964</v>
+        <v>-0.0351781590325112</v>
       </c>
       <c r="J19" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K19" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001924657136543662</v>
+        <v>0.001521687440986796</v>
       </c>
       <c r="M19" t="n">
-        <v>4.558025442927512</v>
+        <v>4.560601834262502</v>
       </c>
       <c r="N19" t="n">
-        <v>38.48572588380939</v>
+        <v>38.4628856763438</v>
       </c>
       <c r="O19" t="n">
-        <v>6.203686475299134</v>
+        <v>6.20184534443933</v>
       </c>
       <c r="P19" t="n">
-        <v>370.8818717235975</v>
+        <v>370.8310881267396</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24021,34 +24100,34 @@
         <v>0.095</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.0837</v>
       </c>
       <c r="H20" t="n">
-        <v>0.115</v>
+        <v>0.1144</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1200642756634834</v>
+        <v>-0.1167687101294208</v>
       </c>
       <c r="J20" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K20" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02805635298326326</v>
+        <v>0.02672176918871239</v>
       </c>
       <c r="M20" t="n">
-        <v>3.649444717937857</v>
+        <v>3.649561617219431</v>
       </c>
       <c r="N20" t="n">
-        <v>23.54639795838068</v>
+        <v>23.52378682917883</v>
       </c>
       <c r="O20" t="n">
-        <v>4.852463081609244</v>
+        <v>4.850132660987618</v>
       </c>
       <c r="P20" t="n">
-        <v>379.2708485089803</v>
+        <v>379.2336193453397</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24086,7 +24165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U277"/>
+  <dimension ref="A1:U278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53705,6 +53784,113 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>-35.673507253176766,174.50829701001734</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>-35.67423087820645,174.50841892795748</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>-35.67494968464379,174.50851445308558</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>-35.675665703754,174.50863694288273</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>-35.67638532239944,174.50878300464942</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>-35.67710671807606,174.50891847757035</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>-35.677823383034315,174.50908467063934</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>-35.67853912615832,174.5092344861732</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>-35.67918948498127,174.50947213588785</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>-35.67977257129351,174.50993912982202</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>-35.68048513883374,174.51015012986394</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>-35.6812325553131,174.50997152975953</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>-35.68196224687737,174.51007630543475</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>-35.68267430253901,174.51028230521936</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>-35.683387966911525,174.51046854195187</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>-35.684104949614714,174.51063345147938</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>-35.684805641207355,174.51087342600314</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>-35.68546218388218,174.51117353679965</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>-35.68606451622633,174.51165504105495</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
